--- a/docs/effective_go/effective_go.xlsx
+++ b/docs/effective_go/effective_go.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\github\go-sample\docs\effective_go\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09386FD-7989-451E-A830-AC44B7D492F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA9C722-2E2F-4FEE-A1B8-443217A8C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Effective Go" sheetId="1" r:id="rId1"/>
-    <sheet name="Go Style Best Practices" sheetId="2" r:id="rId2"/>
-    <sheet name="Go Doc Comments" sheetId="4" r:id="rId3"/>
-    <sheet name="Go Code Review Comments" sheetId="3" r:id="rId4"/>
+    <sheet name="A Tour of Go" sheetId="6" r:id="rId2"/>
+    <sheet name="Go Style Best Practices" sheetId="2" r:id="rId3"/>
+    <sheet name="Go Doc Comments" sheetId="4" r:id="rId4"/>
+    <sheet name="Go Code Review Comments" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="563">
   <si>
     <t>Introduction</t>
     <phoneticPr fontId="1"/>
@@ -143,25 +146,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">When a package is imported, the package name becomes an accessor for the contents. After
-①
-the importing package can talk about bytes.Buffer. It's helpful if everyone using the package can use the same name to refer to its contents, which implies that the package name should be good: short, concise, evocative. By convention, packages are given lower case, single-word names; there should be no need for underscores or mixedCaps. Err on the side of brevity, since everyone using your package will be typing that name. And don't worry about collisions a priori. The package name is only the default name for imports; it need not be unique across all source code, and in the rare case of a collision the importing package can choose a different name to use locally. In any case, confusion is rare because the file name in the import determines just which package is being used.
-Another convention is that the package name is the base name of its source directory; the package in src/encoding/base64 is imported as "encoding/base64" but has name base64, not encoding_base64 and not encodingBase64.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Getters</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Interface names</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">By convention, one-method interfaces are named by the method name plus an -er suffix or similar modification to construct an agent noun: Reader, Writer, Formatter, CloseNotifier etc.
-There are a number of such names and it's productive to honor them and the function names they capture. Read, Write, Close, Flush, String and so on have canonical signatures and meanings. To avoid confusion, don't give your method one of those names unless it has the same signature and meaning. Conversely, if your type implements a method with the same meaning as a method on a well-known type, give it the same name and signature; call your string-converter method String not ToString.
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -186,38 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Like C, Go's formal grammar uses semicolons to terminate statements, but unlike in C, those semicolons do not appear in the source. Instead the lexer uses a simple rule to insert semicolons automatically as it scans, so the input text is mostly free of them.
-The rule is this. If the last token before a newline is an identifier (which includes words like int and float64), a basic literal such as a number or string constant, or one of the tokens
-①
-the lexer always inserts a semicolon after the token. This could be summarized as, “if the newline comes after a token that could end a statement, insert a semicolon”.
-A semicolon can also be omitted immediately before a closing brace, so a statement such as
-②
-needs no semicolons. Idiomatic Go programs have semicolons only in places such as for loop clauses, to separate the initializer, condition, and continuation elements. They are also necessary to separate multiple statements on a line, should you write code that way.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-break continue fallthrough return ++ -- ) }
-②
-    go func() { for { dst &lt;- &lt;-src } }()
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">③
-if i &lt; f() {
-    g()
-}
-④
-if i &lt; f()  // wrong!
-{           // wrong!
-    g()
-}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Control structures</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -232,33 +189,6 @@
   </si>
   <si>
     <t>Redeclaration and reassignment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-f, err := os.Open(name)
-②
-d, err := f.Stat()
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">An aside: The last example in the previous section demonstrates a detail of how the := short declaration form works. The declaration that calls os.Open reads,
-①
-This statement declares two variables, f and err. A few lines later, the call to f.Stat reads,
-②
-which looks as if it declares d and err. Notice, though, that err appears in both statements. This duplication is legal: err is declared by the first statement, but only re-assigned in the second. This means that the call to f.Stat uses the existing err variable declared above, and just gives it a new value.
-In a := declaration a variable v may appear even if it has already been declared, provided:
-this declaration is in the same scope as the existing declaration of v (if v is already declared in an outer scope, the declaration will create a new variable §),
-the corresponding value in the initialization is assignable to v, and
-there is at least one other variable that is created by the declaration.
-This unusual property is pure pragmatism, making it easy to use a single err value, for example, in a long if-else chain. You'll see it used often.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">§ It's worth noting here that in Go the scope of function parameters and return values is the same as the function body, even though they appear lexically outside the braces that enclose the body.
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -268,88 +198,6 @@
   <si>
     <t xml:space="preserve">the language specification
 https://go.dev/ref/spec#Rune_literals
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-// Like a C for
-for init; condition; post { }
-// Like a C while
-for condition { }
-// Like a C for(;;)
-for { }
-②
-sum := 0
-for i := 0; i &lt; 10; i++ {
-    sum += i
-}
-③
-for key, value := range oldMap {
-    newMap[key] = value
-}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The Go for loop is similar to—but not the same as—C's. It unifies for and while and there is no do-while. There are three forms, only one of which has semicolons.
-①
-Short declarations make it easy to declare the index variable right in the loop.
-②
-If you're looping over an array, slice, string, or map, or reading from a channel, a range clause can manage the loop.
-③
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">If you only need the first item in the range (the key or index), drop the second:
-④
-If you only need the second item in the range (the value), use the blank identifier, an underscore, to discard the first:
-⑤
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The blank identifier has many uses, as described in a later section.
-For strings, the range does more work for you, breaking out individual Unicode code points by parsing the UTF-8. Erroneous encodings consume one byte and produce the replacement rune U+FFFD. (The name (with associated builtin type) rune is Go terminology for a single Unicode code point. See the language specification for details.) The loop
-⑥
-prints
-⑦
-Finally, Go has no comma operator and ++ and -- are statements not expressions. Thus if you want to run multiple variables in a for you should use parallel assignment (although that precludes ++ and --).
-⑧
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">④
-for key := range m {
-    if key.expired() {
-        delete(m, key)
-    }
-}
-⑤
-sum := 0
-for _, value := range array {
-    sum += value
-}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑥
-for pos, char := range "日本\x80語" { // \x80 is an illegal UTF-8 encoding
-    fmt.Printf("character %#U starts at byte position %d\n", char, pos)
-}
-⑦
-character U+65E5 '日' starts at byte position 0
-character U+672C '本' starts at byte position 3
-character U+FFFD ' ' starts at byte position 6
-character U+8A9E '語' starts at byte position 7
-⑧
-// Reverse a
-for i, j := 0, len(a)-1; i &lt; j; i, j = i+1, j-1 {
-    a[i], a[j] = a[j], a[i]
-}
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,38 +289,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Although they are not nearly as common in Go as some other C-like languages, break statements can be used to terminate a switch early. Sometimes, though, it's necessary to break out of a surrounding loop, not the switch, and in Go that can be accomplished by putting a label on the loop and "breaking" to that label. This example shows both uses.
-③
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Of course, the continue statement also accepts an optional label but it applies only to loops.
-To close this section, here's a comparison routine for byte slices that uses two switch statements:
-④
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Type switch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①
-var t interface{}
-t = functionOfSomeType()
-switch t := t.(type) {
-default:
-    fmt.Printf("unexpected type %T\n", t)     // %T prints whatever type t has
-case bool:
-    fmt.Printf("boolean %t\n", t)             // t has type bool
-case int:
-    fmt.Printf("integer %d\n", t)             // t has type int
-case *bool:
-    fmt.Printf("pointer to boolean %t\n", *t) // t has type *bool
-case *int:
-    fmt.Printf("pointer to integer %d\n", *t) // t has type *int
-}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -486,39 +303,6 @@
   </si>
   <si>
     <t>Multiple return values</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-func (file *File) Write(b []byte) (n int, err error)
-②
-func nextInt(b []byte, i int) (int, int) {
-    for ; i &lt; len(b) &amp;&amp; !isDigit(b[i]); i++ {
-    }
-    x := 0
-    for ; i &lt; len(b) &amp;&amp; isDigit(b[i]); i++ {
-        x = x*10 + int(b[i]) - '0'
-    }
-    return x, i
-}
-③
-    for i := 0; i &lt; len(b); {
-        x, i = nextInt(b, i)
-        fmt.Println(x)
-    }
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">One of Go's unusual features is that functions and methods can return multiple values. This form can be used to improve on a couple of clumsy idioms in C programs: in-band error returns such as -1 for EOF and modifying an argument passed by address.
-In C, a write error is signaled by a negative count with the error code secreted away in a volatile location. In Go, Write can return a count and an error: “Yes, you wrote some bytes but not all of them because you filled the device”. The signature of the Write method on files from package os is:
-①
-and as the documentation says, it returns the number of bytes written and a non-nil error when n != len(b). This is a common style; see the section on error handling for more examples.
-A similar approach obviates the need to pass a pointer to a return value to simulate a reference parameter. Here's a simple-minded function to grab a number from a position in a byte slice, returning the number and the next position.
-②
-You could use it to scan the numbers in an input slice b like this:
-③
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -597,56 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">④
-func trace(s string) string {
-    fmt.Println("entering:", s)
-    return s
-}
-func un(s string) {
-    fmt.Println("leaving:", s)
-}
-func a() {
-    defer un(trace("a"))
-    fmt.Println("in a")
-}
-func b() {
-    defer un(trace("b"))
-    fmt.Println("in b")
-    a()
-}
-func main() {
-    b()
-}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑤
-entering: b
-in b
-entering: a
-in a
-leaving: a
-leaving: b
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Go's defer statement schedules a function call (the deferred function) to be run immediately before the function executing the defer returns. It's an unusual but effective way to deal with situations such as resources that must be released regardless of which path a function takes to return. The canonical examples are unlocking a mutex or closing a file.
-①
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Deferring a call to a function such as Close has two advantages. First, it guarantees that you will never forget to close the file, a mistake that's easy to make if you later edit the function to add a new return path. Second, it means that the close sits near the open, which is much clearer than placing it at the end of the function.
-The arguments to the deferred function (which include the receiver if the function is a method) are evaluated when the defer executes, not when the call executes. Besides avoiding worries about variables changing values as the function executes, this means that a single deferred call site can defer multiple function executions. Here's a silly example.
-②
-Deferred functions are executed in LIFO order, so this code will cause 4 3 2 1 0 to be printed when the function returns. A more plausible example is a simple way to trace function execution through the program. We could write a couple of simple tracing routines like this:
-③
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">We can do better by exploiting the fact that arguments to deferred functions are evaluated when the defer executes. The tracing routine can set up the argument to the untracing routine. This example:
 ④
 </t>
@@ -665,27 +399,6 @@
   </si>
   <si>
     <t>Allocation with new</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①
-type SyncedBuffer struct {
-    lock    sync.Mutex
-    buffer  bytes.Buffer
-}
-②
-p := new(SyncedBuffer)  // type *SyncedBuffer
-var v SyncedBuffer      // type  SyncedBuffer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Go has two allocation primitives, the built-in functions new and make. They do different things and apply to different types, which can be confusing, but the rules are simple. Let's talk about new first. It's a built-in function that allocates memory, but unlike its namesakes in some other languages it does not initialize the memory, it only zeros it. That is, new(T) allocates zeroed storage for a new item of type T and returns its address, a value of type *T. In Go terminology, it returns a pointer to a newly allocated zero value of type T.
-Since the memory returned by new is zeroed, it's helpful to arrange when designing your data structures that the zero value of each type can be used without further initialization. This means a user of the data structure can create one with new and get right to work. For example, the documentation for bytes.Buffer states that "the zero value for Buffer is an empty buffer ready to use." Similarly, sync.Mutex does not have an explicit constructor or Init method. Instead, the zero value for a sync.Mutex is defined to be an unlocked mutex.
-The zero-value-is-useful property works transitively. Consider this type declaration.
-①
-Values of type SyncedBuffer are also ready to use immediately upon allocation or just declaration. In the next snippet, both p and v will work correctly without further arrangement.
-②
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -717,18 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">③
-    return &amp;File{fd, name, nil, 0}
-④
-    return &amp;File{fd: fd, name: name}
-⑤
-a := [...]string   {Enone: "no error", Eio: "Eio", Einval: "invalid argument"}
-s := []string      {Enone: "no error", Eio: "Eio", Einval: "invalid argument"}
-m := map[int]string{Enone: "no error", Eio: "Eio", Einval: "invalid argument"}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Sometimes the zero value isn't good enough and an initializing constructor is necessary, as in this example derived from package os.
 ①
 There's a lot of boilerplate in there. We can simplify it using a composite literal, which is an expression that creates a new instance each time it is evaluated.
@@ -737,42 +438,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Note that, unlike in C, it's perfectly OK to return the address of a local variable; the storage associated with the variable survives after the function returns. In fact, taking the address of a composite literal allocates a fresh instance each time it is evaluated, so we can combine these last two lines.
-③
-The fields of a composite literal are laid out in order and must all be present. However, by labeling the elements explicitly as field:value pairs, the initializers can appear in any order, with the missing ones left as their respective zero values. Thus we could say
-④
-As a limiting case, if a composite literal contains no fields at all, it creates a zero value for the type. The expressions new(File) and &amp;File{} are equivalent.
-Composite literals can also be created for arrays, slices, and maps, with the field labels being indices or map keys as appropriate. In these examples, the initializations work regardless of the values of Enone, Eio, and Einval, as long as they are distinct.
-⑤
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Allocation with make</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-make([]int, 10, 100)
-②
-var p *[]int = new([]int)       // allocates slice structure; *p == nil; rarely useful
-var v  []int = make([]int, 100) // the slice v now refers to a new array of 100 ints
-// Unnecessarily complex:
-var p *[]int = new([]int)
-*p = make([]int, 100, 100)
-// Idiomatic:
-v := make([]int, 100)
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to allocation. The built-in function make(T, args) serves a purpose different from new(T). It creates slices, maps, and channels only, and it returns an initialized (not zeroed) value of type T (not *T). The reason for the distinction is that these three types represent, under the covers, references to data structures that must be initialized before use. A slice, for example, is a three-item descriptor containing a pointer to the data (inside an array), the length, and the capacity, and until those items are initialized, the slice is nil. For slices, maps, and channels, make initializes the internal data structure and prepares the value for use. For instance,
-①
-allocates an array of 100 ints and then creates a slice structure with length 10 and a capacity of 100 pointing at the first 10 elements of the array. (When making a slice, the capacity can be omitted; see the section on slices for more information.) In contrast, new([]int) returns a pointer to a newly allocated, zeroed slice structure, that is, a pointer to a nil slice value.
-These examples illustrate the difference between new and make.
-②
-Remember that make applies only to maps, slices and channels and does not return a pointer. To obtain an explicit pointer allocate with new or take the address of a variable explicitly.
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -921,72 +587,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">①
-var timeZone = map[string]int{
-    "UTC":  0*60*60,
-    "EST": -5*60*60,
-    "CST": -6*60*60,
-    "MST": -7*60*60,
-    "PST": -8*60*60,
-}
-②
-offset := timeZone["EST"]
-③
-attended := map[string]bool{
-    "Ann": true,
-    "Joe": true,
-    ...
-}
-if attended[person] { // will be false if person is not in the map
-    fmt.Println(person, "was at the meeting")
-}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">④
-var seconds int
-var ok bool
-seconds, ok = timeZone[tz]
-⑤
-func offset(tz string) int {
-    if seconds, ok := timeZone[tz]; ok {
-        return seconds
-    }
-    log.Println("unknown time zone:", tz)
-    return 0
-}
-⑥
-_, present := timeZone[tz]
-⑦
-delete(timeZone, "PDT")  // Now on Standard Time
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sometimes you need to distinguish a missing entry from a zero value. Is there an entry for "UTC" or is that 0 because it's not in the map at all? You can discriminate with a form of multiple assignment.
-④
-For obvious reasons this is called the “comma ok” idiom. In this example, if tz is present, seconds will be set appropriately and ok will be true; if not, seconds will be set to zero and ok will be false. Here's a function that puts it together with a nice error report:
-⑤
-To test for presence in the map without worrying about the actual value, you can use the blank identifier (_) in place of the usual variable for the value.
-⑥
-To delete a map entry, use the delete built-in function, whose arguments are the map and the key to be deleted. It's safe to do this even if the key is already absent from the map.
-⑦
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Maps are a convenient and powerful built-in data structure that associate values of one type (the key) with values of another type (the element or value). The key can be of any type for which the equality operator is defined, such as integers, floating point and complex numbers, strings, pointers, interfaces (as long as the dynamic type supports equality), structs and arrays. Slices cannot be used as map keys, because equality is not defined on them. Like slices, maps hold references to an underlying data structure. If you pass a map to a function that changes the contents of the map, the changes will be visible in the caller.
-Maps can be constructed using the usual composite literal syntax with colon-separated key-value pairs, so it's easy to build them during initialization.
-①
-Assigning and fetching map values looks syntactically just like doing the same for arrays and slices except that the index doesn't need to be an integer.
-②
-An attempt to fetch a map value with a key that is not present in the map will return the zero value for the type of the entries in the map. For instance, if the map contains integers, looking up a non-existent key will return 0. A set can be implemented as a map with value type bool. Set the map entry to true to put the value in the set, and then test it by simple indexing.
-③
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Printing</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1011,70 +611,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Formatted printing in Go uses a style similar to C's printf family but is richer and more general. The functions live in the fmt package and have capitalized names: fmt.Printf, fmt.Fprintf, fmt.Sprintf and so on. The string functions (Sprintf etc.) return a string rather than filling in a provided buffer.
-You don't need to provide a format string. For each of Printf, Fprintf and Sprintf there is another pair of functions, for instance Print and Println. These functions do not take a format string but instead generate a default format for each argument. The Println versions also insert a blank between arguments and append a newline to the output while the Print versions add blanks only if the operand on neither side is a string. In this example each line produces the same output.
-①
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The formatted print functions fmt.Fprint and friends take as a first argument any object that implements the io.Writer interface; the variables os.Stdout and os.Stderr are familiar instances.
-Here things start to diverge from C. First, the numeric formats such as %d do not take flags for signedness or size; instead, the printing routines use the type of the argument to decide these properties.
-②
-prints
-③
-If you just want the default conversion, such as decimal for integers, you can use the catchall format %v (for “value”); the result is exactly what Print and Println would produce. Moreover, that format can print any value, even arrays, slices, structs, and maps. Here is a print statement for the time zone map defined in the previous section.
-④
-which gives output:
-⑤
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">①
 fmt.Printf("Hello %d\n", 23)
 fmt.Fprint(os.Stdout, "Hello ", 23, "\n")
 fmt.Println("Hello", 23)
 fmt.Println(fmt.Sprint("Hello ", 23))
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">②
-var x uint64 = 1&lt;&lt;64 - 1
-fmt.Printf("%d %x; %d %x\n", x, x, int64(x), int64(x))
-③
-18446744073709551615 ffffffffffffffff; -1 -1
-④
-fmt.Printf("%v\n", timeZone)  // or just fmt.Println(timeZone)
-⑤
-map[CST:-21600 EST:-18000 MST:-25200 PST:-28800 UTC:0]
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">For maps, Printf and friends sort the output lexicographically by key.
-When printing a struct, the modified format %+v annotates the fields of the structure with their names, and for any value the alternate format %#v prints the value in full Go syntax.
-⑥
-prints
-⑦
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(Note the ampersands.) That quoted string format is also available through %q when applied to a value of type string or []byte. The alternate format %#q will use backquotes instead if possible. (The %q format also applies to integers and runes, producing a single-quoted rune constant.) Also, %x works on strings, byte arrays and byte slices as well as on integers, generating a long hexadecimal string, and with a space in the format (% x) it puts spaces between the bytes.
-Another handy format is %T, which prints the type of a value.
-⑧
-prints
-⑨
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑧
-fmt.Printf("%T\n", timeZone)
-⑨
-map[string]int
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1156,39 +697,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>There's even more to printing than we've covered here. See the godoc documentation for package fmt for the details.
-By the way, a ... parameter can be of a specific type, for instance ...int for a min function that chooses the least of a list of integers:
-⑯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Append</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-x := []int{1,2,3}
-x = append(x, 4, 5, 6)
-fmt.Println(x)
-②
-x := []int{1,2,3}
-y := []int{4,5,6}
-x = append(x, y...)
-fmt.Println(x)
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Now we have the missing piece we needed to explain the design of the append built-in function. The signature of append is different from our custom Append function above. Schematically, it's like this:
-func append(slice []T, elements ...T) []T
-where T is a placeholder for any given type. You can't actually write a function in Go where the type T is determined by the caller. That's why append is built in: it needs support from the compiler.
-What append does is append the elements to the end of the slice and return the result. The result needs to be returned because, as with our hand-written Append, the underlying array may change. This simple example
-①
-prints [1 2 3 4 5 6]. So append works a little like Printf, collecting an arbitrary number of arguments.
-But what if we wanted to do what our Append does and append a slice to a slice? Easy: use ... at the call site, just as we did in the call to Output above. This snippet produces identical output to the one above.
-②
-Without that ..., it wouldn't compile because the types would be wrong; y is not of type int.
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1473,36 +982,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Type switches are a form of conversion: they take an interface and, for each case in the switch, in a sense convert it to the type of that case. Here's a simplified version of how the code under fmt.Printf turns a value into a string using a type switch. If it's already a string, we want the actual string value held by the interface, while if it has a String method we want the result of calling the method.
-①
-The first case finds a concrete value; the second converts the interface into another interface. It's perfectly fine to mix types this way.
-What if there's only one type we care about? If we know the value holds a string and we just want to extract it? A one-case type switch would do, but so would a type assertion. A type assertion takes an interface value and extracts from it a value of the specified explicit type. The syntax borrows from the clause opening a type switch, but with an explicit type rather than the type keyword:
-②
-and the result is a new value with the static type typeName. That type must either be the concrete type held by the interface, or a second interface type that the value can be converted to. To extract the string we know is in the value, we could write:
-③
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-type Stringer interface {
-    String() string
-}
-var value interface{} // Value provided by caller.
-switch str := value.(type) {
-case string:
-    return str
-case Stringer:
-    return str.String()
-}
-②
-value.(typeName)
-③
-str := value.(string)
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">④
 str, ok := value.(string)
 if ok {
@@ -1618,88 +1097,6 @@
     ctr.n++
     fmt.Fprintf(w, "counter = %d\n", ctr.n)
 }
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">For reference, here's how to attach such a server to a node on the URL tree.
-③
-But why make Counter a struct? An integer is all that's needed. (The receiver needs to be a pointer so the increment is visible to the caller.)
-④
-What if your program has some internal state that needs to be notified that a page has been visited? Tie a channel to the web page.
-⑤
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">③
-import "net/http"
-...
-ctr := new(Counter)
-http.Handle("/counter", ctr)
-④
-// Simpler counter server.
-type Counter int
-func (ctr *Counter) ServeHTTP(w http.ResponseWriter, req *http.Request) {
-    *ctr++
-    fmt.Fprintf(w, "counter = %d\n", *ctr)
-}
-⑤
-// A channel that sends a notification on each visit.
-// (Probably want the channel to be buffered.)
-type Chan chan *http.Request
-func (ch Chan) ServeHTTP(w http.ResponseWriter, req *http.Request) {
-    ch &lt;- req
-    fmt.Fprint(w, "notification sent")
-}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally, let's say we wanted to present on /args the arguments used when invoking the server binary. It's easy to write a function to print the arguments.
-⑥
-How do we turn that into an HTTP server? We could make ArgServer a method of some type whose value we ignore, but there's a cleaner way. Since we can define a method for any type except pointers and interfaces, we can write a method for a function. The http package contains this code:
-⑦
-HandlerFunc is a type with a method, ServeHTTP, so values of that type can serve HTTP requests. Look at the implementation of the method: the receiver is a function, f, and the method calls f. That may seem odd but it's not that different from, say, the receiver being a channel and the method sending on the channel.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑥
-func ArgServer() {
-    fmt.Println(os.Args)
-}
-⑦
-// The HandlerFunc type is an adapter to allow the use of
-// ordinary functions as HTTP handlers.  If f is a function
-// with the appropriate signature, HandlerFunc(f) is a
-// Handler object that calls f.
-type HandlerFunc func(ResponseWriter, *Request)
-// ServeHTTP calls f(w, req).
-func (f HandlerFunc) ServeHTTP(w ResponseWriter, req *Request) {
-    f(w, req)
-}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑧
-// Argument server.
-func ArgServer(w http.ResponseWriter, req *http.Request) {
-    fmt.Fprintln(w, os.Args)
-}
-⑨
-http.Handle("/args", http.HandlerFunc(ArgServer))
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">To make ArgServer into an HTTP server, we first modify it to have the right signature.
-⑧
-ArgServer now has the same signature as HandlerFunc, so it can be converted to that type to access its methods, just as we converted Sequence to IntSlice to access IntSlice.Sort. The code to set it up is concise:
-⑨
-When someone visits the page /args, the handler installed at that page has value ArgServer and type HandlerFunc. The HTTP server will invoke the method ServeHTTP of that type, with ArgServer as the receiver, which will in turn call ArgServer (via the invocation f(w, req) inside HandlerFunc.ServeHTTP). The arguments will then be displayed.
-In this section we have made an HTTP server from a struct, an integer, a channel, and a function, all because interfaces are just sets of methods, which can be defined for (almost) any type.
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1888,15 +1285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Go does not provide the typical, type-driven notion of subclassing, but it does have the ability to “borrow” pieces of an implementation by embedding types within a struct or interface.
-Interface embedding is very simple. We've mentioned the io.Reader and io.Writer interfaces before; here are their definitions.
-①
-The io package also exports several other interfaces that specify objects that can implement several such methods. For instance, there is io.ReadWriter, an interface containing both Read and Write. We could specify io.ReadWriter by listing the two methods explicitly, but it's easier and more evocative to embed the two interfaces to form the new one, like this:
-②
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">①
 type Reader interface {
     Read(p []byte) (n int, err error)
@@ -1910,17 +1298,6 @@
     Reader
     Writer
 }
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">This says just what it looks like: A ReadWriter can do what a Reader does and what a Writer does; it is a union of the embedded interfaces. Only interfaces can be embedded within interfaces.
-The same basic idea applies to structs, but with more far-reaching implications. The bufio package has two struct types, bufio.Reader and bufio.Writer, each of which of course implements the analogous interfaces from package io. And bufio also implements a buffered reader/writer, which it does by combining a reader and a writer into one struct using embedding: it lists the types within the struct but does not give them field names.
-③
-The embedded elements are pointers to structs and of course must be initialized to point to valid structs before they can be used. The ReadWriter struct could be written as
-④
-but then to promote the methods of the fields and to satisfy the io interfaces, we would also need to provide forwarding methods, like this:
-⑤
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1945,45 +1322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">By embedding the structs directly, we avoid this bookkeeping. The methods of embedded types come along for free, which means that bufio.ReadWriter not only has the methods of bufio.Reader and bufio.Writer, it also satisfies all three interfaces: io.Reader, io.Writer, and io.ReadWriter.
-There's an important way in which embedding differs from subclassing. When we embed a type, the methods of that type become methods of the outer type, but when they are invoked the receiver of the method is the inner type, not the outer one. In our example, when the Read method of a bufio.ReadWriter is invoked, it has exactly the same effect as the forwarding method written out above; the receiver is the reader field of the ReadWriter, not the ReadWriter itself.
-Embedding can also be a simple convenience. This example shows an embedded field alongside a regular, named field.
-⑥
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑥
-type Job struct {
-    Command string
-    *log.Logger
-}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The Job type now has the Print, Printf, Println and other methods of *log.Logger. We could have given the Logger a field name, of course, but it's not necessary to do so. And now, once initialized, we can log to the Job:
-⑦
-The Logger is a regular field of the Job struct, so we can initialize it in the usual way inside the constructor for Job, like this,
-⑧
-or with a composite literal,
-⑨
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑦
-job.Println("starting now...")
-⑧
-func NewJob(command string, logger *log.Logger) *Job {
-    return &amp;Job{command, logger}
-}
-⑨
-job := &amp;Job{command, log.New(os.Stderr, "Job: ", log.Ldate)}
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">⑩
 func (job *Job) Printf(format string, args ...interface{}) {
     job.Logger.Printf("%q: %s", job.Command, fmt.Sprintf(format, args...))
@@ -1992,28 +1330,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">If we need to refer to an embedded field directly, the type name of the field, ignoring the package qualifier, serves as a field name, as it did in the Read method of our ReadWriter struct. Here, if we needed to access the *log.Logger of a Job variable job, we would write job.Logger, which would be useful if we wanted to refine the methods of Logger.
-⑩
-Embedding types introduces the problem of name conflicts but the rules to resolve them are simple. First, a field or method X hides any other item X in a more deeply nested part of the type. If log.Logger contained a field or method called Command, the Command field of Job would dominate it.
-Second, if the same name appears at the same nesting level, it is usually an error; it would be erroneous to embed log.Logger if the Job struct contained another field or method called Logger. However, if the duplicate name is never mentioned in the program outside the type definition, it is OK. This qualification provides some protection against changes made to types embedded from outside; there is no problem if a field is added that conflicts with another field in another subtype if neither field is ever used.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Concurrency</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Share by communicating</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Concurrent programming is a large topic and there is space only for some Go-specific highlights here.
-Concurrent programming in many environments is made difficult by the subtleties required to implement correct access to shared variables. Go encourages a different approach in which shared values are passed around on channels and, in fact, never actively shared by separate threads of execution. Only one goroutine has access to the value at any given time. Data races cannot occur, by design. To encourage this way of thinking we have reduced it to a slogan:
-Do not communicate by sharing memory; instead, share memory by communicating.
-This approach can be taken too far. Reference counts may be best done by putting a mutex around an integer variable, for instance. But as a high-level approach, using channels to control access makes it easier to write clear, correct programs.
-One way to think about this model is to consider a typical single-threaded program running on one CPU. It has no need for synchronization primitives. Now run another such instance; it too needs no synchronization. Now let those two communicate; if the communication is the synchronizer, there's still no need for other synchronization. Unix pipelines, for example, fit this model perfectly. Although Go's approach to concurrency originates in Hoare's Communicating Sequential Processes (CSP), it can also be seen as a type-safe generalization of Unix pipes.
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2225,37 +1546,6 @@
     <t xml:space="preserve">Another application of these ideas is to parallelize a calculation across multiple CPU cores. If the calculation can be broken into separate pieces that can execute independently, it can be parallelized, with a channel to signal when each piece completes.
 Let's say we have an expensive operation to perform on a vector of items, and that the value of the operation on each item is independent, as in this idealized example.
 ①
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②
-const numCPU = 4 // number of CPU cores
-func (v Vector) DoAll(u Vector) {
-    c := make(chan int, numCPU)  // Buffering optional but sensible.
-    for i := 0; i &lt; numCPU; i++ {
-        go v.DoSome(i*len(v)/numCPU, (i+1)*len(v)/numCPU, u, c)
-    }
-    // Drain the channel.
-    for i := 0; i &lt; numCPU; i++ {
-        &lt;-c    // wait for one task to complete
-    }
-    // All done.
-}
-③
-var numCPU = runtime.NumCPU()
-④
-var numCPU = runtime.GOMAXPROCS(0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">We launch the pieces independently in a loop, one per CPU. They can complete in any order but it doesn't matter; we just count the completion signals by draining the channel after launching all the goroutines.
-②
-Rather than create a constant value for numCPU, we can ask the runtime what value is appropriate. The function runtime.NumCPU returns the number of hardware CPU cores in the machine, so we could write
-③
-There is also a function runtime.GOMAXPROCS, which reports (or sets) the user-specified number of cores that a Go program can have running simultaneously. It defaults to the value of runtime.NumCPU but can be overridden by setting the similarly named shell environment variable or by calling the function with a positive number. Calling it with zero just queries the value. Therefore if we want to honor the user's resource request, we should write
-④
-Be sure not to confuse the ideas of concurrency—structuring a program as independently executing components—and parallelism—executing calculations in parallel for efficiency on multiple CPUs. Although the concurrency features of Go can make some problems easy to structure as parallel computations, Go is a concurrent language, not a parallel one, and not all parallelization problems fit Go's model. For a discussion of the distinction, see the talk cited in this blog post.
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2321,38 +1611,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Library routines must often return some sort of error indication to the caller. As mentioned earlier, Go's multivalue return makes it easy to return a detailed error description alongside the normal return value. It is good style to use this feature to provide detailed error information. For example, as we'll see, os.Open doesn't just return a nil pointer on failure, it also returns an error value that describes what went wrong.
-By convention, errors have type error, a simple built-in interface.
-①
-A library writer is free to implement this interface with a richer model under the covers, making it possible not only to see the error but also to provide some context. As mentioned, alongside the usual *os.File return value, os.Open also returns an error value. If the file is opened successfully, the error will be nil, but when there is a problem, it will hold an os.PathError:
-②
-PathError's Error generates a string like this:
-③
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-type error interface {
-    Error() string
-}
-②
-// PathError records an error and the operation and
-// file path that caused it.
-type PathError struct {
-    Op string    // "open", "unlink", etc.
-    Path string  // The associated file.
-    Err error    // Returned by the system call.
-}
-func (e *PathError) Error() string {
-    return e.Op + " " + e.Path + ": " + e.Err.Error()
-}
-③
-open /etc/passwx: no such file or directory
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">④
 for try := 0; try &lt; 2; try++ {
     file, err = os.Create(filename)
@@ -2369,60 +1627,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Such an error, which includes the problematic file name, the operation, and the operating system error it triggered, is useful even if printed far from the call that caused it; it is much more informative than the plain "no such file or directory".
-When feasible, error strings should identify their origin, such as by having a prefix naming the operation or package that generated the error. For example, in package image, the string representation for a decoding error due to an unknown format is "image: unknown format".
-Callers that care about the precise error details can use a type switch or a type assertion to look for specific errors and extract details. For PathErrors this might include examining the internal Err field for recoverable failures.
-④
-The second if statement here is another type assertion. If it fails, ok will be false, and e will be nil. If it succeeds, ok will be true, which means the error was of type *os.PathError, and then so is e, which we can examine for more information about the error.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Panic</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①
-// A toy implementation of cube root using Newton's method.
-func CubeRoot(x float64) float64 {
-    z := x/3   // Arbitrary initial value
-    for i := 0; i &lt; 1e6; i++ {
-        prevz := z
-        z -= (z*z*z-x) / (3*z*z)
-        if veryClose(z, prevz) {
-            return z
-        }
-    }
-    // A million iterations has not converged; something is wrong.
-    panic(fmt.Sprintf("CubeRoot(%g) did not converge", x))
-}
-②
-var user = os.Getenv("USER")
-func init() {
-    if user == "" {
-        panic("no value for $USER")
-    }
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The usual way to report an error to a caller is to return an error as an extra return value. The canonical Read method is a well-known instance; it returns a byte count and an error. But what if the error is unrecoverable? Sometimes the program simply cannot continue.
-For this purpose, there is a built-in function panic that in effect creates a run-time error that will stop the program (but see the next section). The function takes a single argument of arbitrary type—often a string—to be printed as the program dies. It's also a way to indicate that something impossible has happened, such as exiting an infinite loop.
-①
-This is only an example but real library functions should avoid panic. If the problem can be masked or worked around, it's always better to let things continue to run rather than taking down the whole program. One possible counterexample is during initialization: if the library truly cannot set itself up, it might be reasonable to panic, so to speak.
-②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Recover</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">When panic is called, including implicitly for run-time errors such as indexing a slice out of bounds or failing a type assertion, it immediately stops execution of the current function and begins unwinding the stack of the goroutine, running any deferred functions along the way. If that unwinding reaches the top of the goroutine's stack, the program dies. However, it is possible to use the built-in function recover to regain control of the goroutine and resume normal execution.
-A call to recover stops the unwinding and returns the argument passed to panic. Because the only code that runs while unwinding is inside deferred functions, recover is only useful inside deferred functions.
-One application of recover is to shut down a failing goroutine inside a server without killing the other executing goroutines.
-①
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2487,14 +1696,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">In this example, if do(work) panics, the result will be logged and the goroutine will exit cleanly without disturbing the others. There's no need to do anything else in the deferred closure; calling recover handles the condition completely.
-Because recover always returns nil unless called directly from a deferred function, deferred code can call library routines that themselves use panic and recover without failing. As an example, the deferred function in safelyDo might call a logging function before calling recover, and that logging code would run unaffected by the panicking state.
-With our recovery pattern in place, the do function (and anything it calls) can get out of any bad situation cleanly by calling panic. We can use that idea to simplify error handling in complex software. Let's look at an idealized version of a regexp package, which reports parsing errors by calling panic with a local error type. Here's the definition of Error, an error method, and the Compile function.
-②
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">If doParse panics, the recovery block will set the return value to nil—deferred functions can modify named return values. It will then check, in the assignment to err, that the problem was a parse error by asserting that it has the local type Error. If it does not, the type assertion will fail, causing a run-time error that continues the stack unwinding as though nothing had interrupted it. This check means that if something unexpected happens, such as an index out of bounds, the code will fail even though we are using panic and recover to handle parse errors.
 </t>
     <phoneticPr fontId="1"/>
@@ -2509,28 +1710,6 @@
   </si>
   <si>
     <t>A web server</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-package main
-import (
-    "flag"
-    "html/template"
-    "log"
-    "net/http"
-)
-var addr = flag.String("addr", ":1718", "http service address") // Q=17, R=18
-var templ = template.Must(template.New("qr").Parse(templateStr))
-func main() {
-    flag.Parse()
-    http.Handle("/", http.HandlerFunc(QR))
-    err := http.ListenAndServe(*addr, nil)
-    if err != nil {
-        log.Fatal("ListenAndServe:", err)
-    }
-}
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2567,28 +1746,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Let's finish with a complete Go program, a web server. This one is actually a kind of web re-server. Google provides a service at chart.apis.google.com that does automatic formatting of data into charts and graphs. It's hard to use interactively, though, because you need to put the data into the URL as a query. The program here provides a nicer interface to one form of data: given a short piece of text, it calls on the chart server to produce a QR code, a matrix of boxes that encode the text. That image can be grabbed with your cell phone's camera and interpreted as, for instance, a URL, saving you typing the URL into the phone's tiny keyboard.
-Here's the complete program. An explanation follows.
-① 
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The pieces up to main should be easy to follow. The one flag sets a default HTTP port for our server. The template variable templ is where the fun happens. It builds an HTML template that will be executed by the server to display the page; more about that in a moment.
-The main function parses the flags and, using the mechanism we talked about above, binds the function QR to the root path for the server. Then http.ListenAndServe is called to start the server; it blocks while the server runs.
-QR just receives the request, which contains form data, and executes the template on the data in the form value named s.
-The template package html/template is powerful; this program just touches on its capabilities. In essence, it rewrites a piece of HTML text on the fly by substituting elements derived from data items passed to templ.Execute, in this case the form value. Within the template text (templateStr), double-brace-delimited pieces denote template actions. The piece from {{if .}} to {{end}} executes only if the value of the current data item, called . (dot), is non-empty. That is, when the string is empty, this piece of the template is suppressed.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The two snippets {{.}} say to show the data presented to the template—the query string—on the web page. The HTML template package automatically provides appropriate escaping so the text is safe to display.
-The rest of the template string is just the HTML to show when the page loads. If this is too quick an explanation, see the documentation for the template package for a more thorough discussion.
-And there you have it: a useful web server in a few lines of code plus some data-driven HTML text. Go is powerful enough to make a lot happen in a few lines.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>documentation
 https://go.dev/pkg/html/template/</t>
     <phoneticPr fontId="1"/>
@@ -2640,17 +1797,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Goをうまく書くには、Goの特性とイディオムを理解することが重要です。また、命名、フォーマット、プログラム構築など、Goでのプログラミングにおける確立された規則を理解することも重要です。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Go パッケージのソースコードは、コアライブラリとしてだけでなく、言語の使い方のサンプルとしても活用できます。
-問題へのアプローチ方法や実装方法について疑問がある場合は、ライブラリ内のドキュメント、コード、サンプルコードから回答、アイデア、背景情報を得ることができます。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">フォーマットの問題は最も議論の的となるものの、最も影響度が低いものです。人々は異なるフォーマットスタイルに適応できますが、そうする必要がない方が望ましいですし、全員が同じスタイルに従えば、この問題に費やす時間も少なくなります。問題は、長々とした規範的なスタイルガイドなしに、この理想郷にどうアプローチするかです。
 Goでは、私たちは珍しいアプローチを採用し、ほとんどのフォーマット問題を機械に任せています。gofmtプログラム（go fmtとしても利用可能で、ソースファイルレベルではなくパッケージレベルで動作します）は、Goプログラムを読み取り、標準的なインデントと垂直方向の配置でソースを出力します。コメントは保持され、必要に応じて再フォーマットされます。新しいレイアウト状況への対処方法を知りたい場合は、gofmtを実行してください。もし答えが正しくない場合は、プログラムを再調整するか（またはgofmtに関するバグを報告してください）、回避策を講じないでください。
 例えば、構造体のフィールドのコメントを整列させるのに時間を費やす必要はありません。Gofmtが代わりに行ってくれます。宣言が与えられれば
@@ -2682,21 +1828,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">インデントは、タブ
-行の長さの制限なし
-</t>
-    <rPh sb="11" eb="12">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Go では、C スタイルの /* */ ブロックコメントと C++ スタイルの // 行コメントが提供されます。行コメントが標準です。ブロックコメントは主にパッケージコメントとして使用されますが、式の中で使用したり、コードの大部分を無効化したりするのに便利です。
 トップレベルの宣言の前に改行なしで記述されたコメントは、宣言自体をドキュメント化するものとみなされます。これらの「ドキュメントコメント」は、特定の Go パッケージまたはコマンドの主要なドキュメントです。ドキュメントコメントの詳細については、「Go ドキュメントコメント」を参照してください。
 </t>
@@ -2709,85 +1840,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>// 行コメントを標準</t>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Go言語においても、名前は他の言語と同様に重要です。意味的な影響さえも持ちます。パッケージ外における名前の可視性は、最初の文字が大文字かどうかによって決まります。そのため、Go言語における命名規則について少し時間をかけて説明しておく価値があります。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージがインポートされると、パッケージ名はその内容へのアクセサになります。
-インポートするパッケージは bytes.Buffer について言及できるようになります。パッケージを使用するすべての人が同じ名前でその内容を参照できると便利です。つまり、パッケージ名は短く、簡潔で、内容を想起させる適切な名前にする必要があります。慣例的に、パッケージには小文字で単一の単語からなる名前が付けられます。アンダースコアや大文字と小文字が混在した名前は不要です。パッケージを使用するすべての人がその名前を入力するので、簡潔さを優先してください。また、衝突については事前に心配する必要はありません。パッケージ名はインポート時のデフォルト名に過ぎず、すべてのソースコードで一意である必要はありません。万が一衝突が発生した場合でも、インポートするパッケージはローカルで使用するために別の名前を選択できます。いずれにしても、インポート時のファイル名によって使用されるパッケージが決定されるため、混乱はまれです。
-もう一つの慣例として、パッケージ名はソースディレクトリのベース名になります。 src/encoding/base64 内のパッケージは "encoding/base64" としてインポートされていますが、名前は encoding_base64 でも encodingBase64 でもなく、base64 です。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パッケージには小文字で単一の単語からなる名前が付けられます。アンダースコアや大文字と小文字が混在した名前は不要です。
-標準パッケージのstrings、structsなどから、複数形。
-パッケージ名はソースディレクトリのベース名</t>
-    <rPh sb="7" eb="10">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タンイツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>オオモジ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コンザイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t>フクスウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The importer of a package will use the name to refer to its contents, so exported names in the package can use that fact to avoid repetition. (Don't use the import . notation, which can simplify tests that must run outside the package they are testing, but should otherwise be avoided.) For instance, the buffered reader type in the bufio package is called Reader, not BufReader, because users see it as bufio.Reader, which is a clear, concise name. Moreover, because imported entities are always addressed with their package name, bufio.Reader does not conflict with io.Reader. Similarly, the function to make new instances of ring.Ring—which is the definition of a constructor in Go—would normally be called NewRing, but since Ring is the only type exported by the package, and since the package is called ring, it's called just New, which clients of the package see as ring.New. Use the package structure to help you choose good names.
-Another short example is once.Do; once.Do(setup) reads well and would not be improved by writing once.DoOrWaitUntilDone(setup). Long names don't automatically make things more readable. A helpful doc comment can often be more valuable than an extra long name.
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パッケージのインポートする側は、その内容を参照するために名前を使用するため、パッケージ内でエクスポートされた名前では、その事実を利用して重複を避けることができます。(import. 記法は使用しないでください。この記法は、テスト対象のパッケージ外で実行する必要があるテストを簡素化できますが、それ以外の場合は避けるべきです。) たとえば、bufio パッケージのバッファ付きリーダー型は、BufReader ではなく Reader と呼ばれます。これは、ユーザーが bufio.Reader として認識し、簡潔でわかりやすい名前だからです。さらに、インポートされたエンティティは常にパッケージ名で参照されるため、bufio.Reader は io.Reader と競合しません。同様に、ring.Ring の新しいインスタンスを作成する関数 (Go のコンストラクタの定義) は通常 NewRing と呼ばれますが、Ring はパッケージによってエクスポートされる唯一の型であり、パッケージ名が ring であるため、単に New と呼ばれ、パッケージのクライアントからは ring.New として認識されます。パッケージ構造を参考に、適切な名前を選択してください。
-もう 1 つの短い例は once.Do; です。 once.Do(setup) は読みやすく、once.DoOrWaitUntilDone(setup) と書いても改善されません。長い名前が必ずしも読みやすくなるわけではありません。役に立つドキュメンテーションコメントは、長すぎる名前よりも価値がある場合が多いです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">インポートは、常にパッケージ名で参照
-ring.Ring の新しいインスタンスを作成する関数 (Go のコンストラクタの定義) は通常 NewRing と呼ばれます
-Ring はパッケージによってエクスポートされる唯一の型であり、パッケージ名が ring であるため、単に New と呼ばれる
-役に立つドキュメンテーションコメントは、長すぎる名前よりも価値がある場合が多いです。
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2811,121 +1864,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UpperCamel、lowerCamelを利用する。</t>
-    <rPh sb="22" eb="24">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Go は getter と setter を自動的にサポートしていません。getter と setter を自分で用意することに何の問題もありませんし、多くの場合そうすることが適切です。しかし、getter の名前に Get を含めることは慣用的でも必要でもありません。owner (小文字、エクスポートなし) というフィールドがある場合、getter メソッドは GetOwner ではなく Owner (大文字、エクスポートあり) と名付けるべきです。エクスポート時に大文字の名前を使用することで、フィールドとメソッドを区別するフックが提供されます。必要な場合、setter 関数は SetOwner と呼ばれるでしょう。実際にはどちらの名前でも読みやすいです。
 ①
 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">慣例により、単一メソッドインターフェースは、メソッド名に -er サフィックスまたは同様の修飾語を付加して行為者名詞（例: maker，actor，student）を構成します（例：Reader、Writer、Formatter、CloseNotifier など）。
-このような名前は数多く存在しますが、それらとそれらが表す関数名を尊重することは有益です。Read、Write、Close、Flush、String などは、標準的なシグネチャと意味を持っています。混乱を避けるため、同じシグネチャと意味を持つ場合を除き、メソッドにこれらの名前は付けないでください。逆に、既存の型のメソッドと同じ意味を持つメソッドを実装する型の場合は、同じ名前とシグネチャを使用します。つまり、文字列変換メソッドは ToString ではなく String とします。
-</t>
-    <rPh sb="53" eb="56">
-      <t>コウイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">単一メソッドインターフェースは、メソッド名に -er、または行為者名詞（例: maker，actor，student）を サフィックスとして付加する
-Read、Write、Close、Flush、String などは、標準的なシグネチャは、同じ意味を持つ場合にのみ付与する。
-</t>
-    <rPh sb="70" eb="72">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">owner (小文字、エクスポートなし) というフィールドがある場合、getter メソッドは Owner (大文字、エクスポートあり)
-setter 関数は SetOwner 
-エクスポート時に大文字の名前を使用する
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">C言語と同様に、Go言語の形式文法では文の終了にセミコロンを使用しますが、C言語とは異なり、これらのセミコロンはソースコードには現れません。代わりに、レキサーは単純なルールに従ってスキャン時に自動的にセミコロンを挿入するため、入力テキストにはほとんどセミコロンが含まれません。
-ルールは次のとおりです。改行前の最後のトークンが識別子（intやfloat64などの単語を含む）、数値や文字列定数などの基本リテラル、または以下のいずれかのトークンである場合、レキサーは常にトークンの後にセミコロンを挿入します。
-①
-これは、「改行が文を終了させる可能性のあるトークンの後に来る場合は、セミコロンを挿入する」と要約できます。
-セミコロンは閉じ括弧の直前でも省略できるため、次のような文にはセミコロンは不要です。
-②
-慣用的なGo言語プログラムでは、forループ節など、初期化子、条件、継続要素を区切る場合にのみセミコロンを使用します。また、コードをそのように記述する場合、1 行に複数のステートメントを区切るためにも必要です。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セミコロンの挿入規則により、制御構造（if、for、switch、select）の開き中括弧を次の行に置くことはできません。もし置くと、中括弧の前にセミコロンが挿入され、望ましくない結果が生じる可能性があります。次のように記述してください。
-③
-このように記述しないでください。
-④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">制御構造（if、for、switch、select）の開き中括弧を次の行に置くことはできません。もし置くと、中括弧の前にセミコロンが挿入され、望ましくない結果が生じる可能性があります。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文末セミコロンは、自動的に挿入されるので、不要。
-forループ節など、初期化子、条件、継続要素を区切る場合にのみセミコロンを使用します。</t>
-    <rPh sb="0" eb="2">
-      <t>ブンマツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Goの制御構造はC言語の制御構造と関連していますが、重要な点において異なります。doループやwhileループはなく、やや一般化されたfor文のみです。switch文はより柔軟です。if文とswitch文は、for文と同様にオプションの初期化文を受け入れます。break文とcontinue文は、中断または継続する対象を識別するためのオプションのラベルを受け取ります。さらに、型スイッチや多方向通信マルチプレクサであるselectといった新しい制御構造も追加されています。構文も若干異なり、括弧は存在せず、本体は常に中括弧で区切る必要があります。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ループは、般化されたfor文のみ
-if文とswitch文は、for文と同様にオプションの初期化文が利用可能
-括弧は存在せず、本体は常に中括弧で区切る必要があります。
-</t>
-    <rPh sb="50" eb="54">
-      <t>リヨウカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">if 文が次の文に流れ込まない場合、つまり本体が break、continue、goto、または return で終わる場合、不要な else 文は省略されます。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">In Go a simple if looks like this:
-①
-Mandatory braces encourage writing simple if statements on multiple lines. It's good style to do so anyway, especially when the body contains a control statement such as a return or break.
-Since if and switch accept an initialization statement, it's common to see one used to set up a local variable.
-②
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2938,32 +1883,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Go では、単純な if 文は次のようになります。
-①
-必須の中括弧は、単純な if 文を複数行に記述することを推奨します。特に本体に return や break などの制御文が含まれている場合は、複数行に記述するのが良いスタイルです。
-if と switch は初期化文を受け入れるため、ローカル変数を設定するために初期化文が使用されることはよくあります。
-②
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Go ライブラリでは、if 文が次の文に流れ込まない場合、つまり本体が break、continue、goto、または return で終わる場合、不要な else 文は省略されます。
 ③
 これは、コードが一連のエラー状態から保護しなければならない一般的な状況の例です。ページを進むにつれて正常な制御フローが流れ、エラーが発生した場合はそれを排除することで、コードの可読性が向上します。エラーは return 文で終了することが多いため、結果として得られるコードには else 文は必要ありません。
 ④
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①
-if x &gt; 0 {
-    return y
-}
-②
-if err := file.Chmod(0664); err != nil {
-    log.Print(err)
-    return err
-}
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2989,8 +1912,3045 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">必須の中括弧は、単純な if 文を複数行に記述することを推奨します。
-if と switch は初期化文を受け入れるため、ローカル変数を設定するために初期化文が使用される
+    <t xml:space="preserve">余談：前のセクションの最後の例は、:= 短縮宣言形式がどのように動作するかを詳細に示しています。os.Open を呼び出す宣言は、次のように記述されています。
+①
+この文は、2つの変数 f と err を宣言しています。数行後の f.Stat の呼び出しは、次のように記述されています。
+②
+これは、d と err を宣言しているように見えます。ただし、err が両方の文に出現していることに注意してください。この重複は有効です。err は最初の文で宣言されていますが、2番目の文では再代入のみが行われています。つまり、f.Stat の呼び出しは、上で宣言された既存の err 変数を使用し、単に新しい値を代入するだけです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">An aside: The last example in the previous section demonstrates a detail of how the := short declaration form works. The declaration that calls os.Open reads,
+①
+This statement declares two variables, f and err. A few lines later, the call to f.Stat reads,
+②
+which looks as if it declares d and err. Notice, though, that err appears in both statements. This duplication is legal: err is declared by the first statement, but only re-assigned in the second. This means that the call to f.Stat uses the existing err variable declared above, and just gives it a new value.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In a := declaration a variable v may appear even if it has already been declared, provided:
+this declaration is in the same scope as the existing declaration of v (if v is already declared in an outer scope, the declaration will create a new variable §),
+the corresponding value in the initialization is assignable to v, and
+there is at least one other variable that is created by the declaration.
+This unusual property is pure pragmatism, making it easy to use a single err value, for example, in a long if-else chain. You'll see it used often.
+§ It's worth noting here that in Go the scope of function parameters and return values is the same as the function body, even though they appear lexically outside the braces that enclose the body.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:= 宣言では、変数 v が既に宣言されている場合でも、次の条件を満たす限り、出現させることができます。
+この宣言は、既存の v の宣言と同じスコープ内にあります（v が既に外側のスコープで宣言されている場合、宣言によって新しい変数が作成されます §）。
+初期化内の対応する値は v に代入可能であり、宣言によって作成された他の変数が少なくとも1つ存在します。この珍しい特性は純粋な実用性に基づくもので、例えば、長いif-else文の中で単一のerr値を使うのが容易になります。この特性は頻繁に使われるのを目にすることでしょう。
+§ ここで注目すべき点は、Go では関数のパラメータと戻り値のスコープは、関数本体を囲む中括弧の外側に字句的に現れるにもかかわらず、関数本体と同じであるということです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">エラーを受け取るerr変数は、同じ変数名でよい。
+</t>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go の for ループは C のものと似ていますが、同じではありません。for と while が統合されており、do-while はありません。3 つの形式があり、そのうち 1 つだけがセミコロンを使用します。
+①
+短い宣言により、ループ内でインデックス変数を簡単に宣言できます。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Go for loop is similar to—but not the same as—C's. It unifies for and while and there is no do-while. There are three forms, only one of which has semicolons.
+①
+Short declarations make it easy to declare the index variable right in the loop.
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you're looping over an array, slice, string, or map, or reading from a channel, a range clause can manage the loop.
+③
+If you only need the first item in the range (the key or index), drop the second:
+④
+If you only need the second item in the range (the value), use the blank identifier, an underscore, to discard the first:
+⑤
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+// Like a C for
+for init; condition; post { }
+// Like a C while
+for condition { }
+// Like a C for(;;)
+for { }
+②
+sum := 0
+for i := 0; i &lt; 10; i++ {
+    sum += i
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">③
+for key, value := range oldMap {
+    newMap[key] = value
+}
+④
+for key := range m {
+    if key.expired() {
+        delete(m, key)
+    }
+}
+⑤
+sum := 0
+for _, value := range array {
+    sum += value
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配列、slice、string、mapをループする場合、チャンネルからデータを読み取る場合は、range句を使用
+for key, value := range oldMap {
+    newMap[key] = value
+}
+キーだけ、ループ
+for key := range m {
+    if key.expired() {
+        delete(m, key)
+    }
+}
+値だけループ　※ キーは、「_」
+sum := 0
+for _, value := range array {
+    sum += value
+}
+</t>
+    <rPh sb="203" eb="204">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The blank identifier has many uses, as described in a later section.
+For strings, the range does more work for you, breaking out individual Unicode code points by parsing the UTF-8. Erroneous encodings consume one byte and produce the replacement rune U+FFFD. (The name (with associated builtin type) rune is Go terminology for a single Unicode code point. See the language specification for details.) The loop
+⑥
+prints
+⑦
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, Go has no comma operator and ++ and -- are statements not expressions. Thus if you want to run multiple variables in a for you should use parallel assignment (although that precludes ++ and --).
+⑧
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ブランク識別子には、後のセクションで説明するように、多くの用途があります。
+文字列の場合、rangeはより多くの処理を行い、UTF-8を解析して個々のUnicodeコードポイントに分割します。誤ったエンコーディングは1バイトを消費し、置換ルーンU+FFFDを生成します。（rune（関連づけられた組み込み型）という名前は、単一のUnicodeコードポイントを表すGo用語です。詳細は言語仕様を参照してください。）ループは
+⑥
+は、以下を出力します
+⑦
+</t>
+    <rPh sb="158" eb="160">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に、Goにはカンマ演算子がなく、++と--は式ではなく文です。したがって、for文で複数の変数を実行する場合は、並列代入を使用する必要があります（ただし、++と--は使用できなくなります）。
+⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑥
+for pos, char := range "日本\x80語" { // \x80 is an illegal UTF-8 encoding
+    fmt.Printf("character %#U starts at byte position %d\n", char, pos)
+}
+⑦
+character U+65E5 '日' starts at byte position 0
+character U+672C '本' starts at byte position 3
+character U+FFFD ' ' starts at byte position 6
+character U+8A9E '語' starts at byte position 7
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑧
+// Reverse a
+for i, j := 0, len(a)-1; i &lt; j; i, j = i+1, j-1 {
+    a[i], a[j] = a[j], a[i]
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Go の switch は C の switch よりも汎用的です。式は定数や整数である必要はなく、case は一致するものが見つかるまで上から下まで評価され、switch に式がない場合は true になります。したがって、if-else-if-else の連鎖を switch として記述することが可能であり、かつ慣用的で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>す。
+①
+自動フォールスルーはありませんが、case はカンマ区切りのリストで記述できます。
+②</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">式がないswitchは、if-elseif-else 相当
+自動フォールスルーはありません
+case はカンマ区切りのリストで記述できます。
+</t>
+    <rPh sb="0" eb="1">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">To close this section, here's a comparison routine for byte slices that uses two switch statements:
+④
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Although they are not nearly as common in Go as some other C-like languages, break statements can be used to terminate a switch early. Sometimes, though, it's necessary to break out of a surrounding loop, not the switch, and in Go that can be accomplished by putting a label on the loop and "breaking" to that label. This example shows both uses.
+③
+Of course, the continue statement also accepts an optional label but it applies only to loops.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このセクションの最後に、2つの switch 文を使用したバイトスライスの比較ルーチンを示します。
+④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Goでは他のC系言語ほど一般的ではありませんが、break文はswitch文を早期に終了するために使用できます。しかし、switch文ではなく、ループを抜け出す必要がある場合もあります。Goでは、ループにラベルを付け、そのラベルまで「break」することでこれを実現できます。この例は、両方の用法を示しています。
+③
+もちろん、continue 文はオプションのラベルも受け入れますが、これはループにのみ適用されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">One of Go's unusual features is that functions and methods can return multiple values. This form can be used to improve on a couple of clumsy idioms in C programs: in-band error returns such as -1 for EOF and modifying an argument passed by address.
+In C, a write error is signaled by a negative count with the error code secreted away in a volatile location. In Go, Write can return a count and an error: “Yes, you wrote some bytes but not all of them because you filled the device”. The signature of the Write method on files from package os is:
+①
+and as the documentation says, it returns the number of bytes written and a non-nil error when n != len(b). This is a common style; see the section on error handling for more examples.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A similar approach obviates the need to pass a pointer to a return value to simulate a reference parameter. Here's a simple-minded function to grab a number from a position in a byte slice, returning the number and the next position.
+②
+You could use it to scan the numbers in an input slice b like this:
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go の珍しい機能の一つは、関数やメソッドが複数の値を返せることです。この形式は、C プログラムの扱いにくいイディオム、例えば EOF に対して -1 を返すといった帯域内エラーの戻り値や、アドレスで渡された引数の変更といった問題を改善するために利用できます。
+C では、書き込みエラーは負のカウントで通知され、エラーコードは揮発性の領域に保存されます。Go では、Write はカウントとエラーを返すことができます。「はい、一部のバイトは書き込みましたが、デバイスがいっぱいになったため、すべては書き込まれていません。」パッケージ os のファイルに対する Write メソッドのシグネチャは次のとおりです。
+①
+ドキュメントに記載されているように、書き込まれたバイト数と、n != len(b) の場合に nil 以外のエラーを返します。これは一般的なスタイルです。詳細な例については、エラー処理のセクションを参照してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">同様のアプローチにより、参照パラメータをシミュレートするために戻り値にポインタを渡す必要がなくなります。以下は、バイトスライス内の特定の位置から数値を取得し、その数値と次の位置を返すシンプルな関数です。
+②
+これを使って、入力スライス b 内の数値を次のようにスキャンできます。
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+func (file *File) Write(b []byte) (n int, err error)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+func nextInt(b []byte, i int) (int, int) {
+    for ; i &lt; len(b) &amp;&amp; !isDigit(b[i]); i++ {
+    }
+    x := 0
+    for ; i &lt; len(b) &amp;&amp; isDigit(b[i]); i++ {
+        x = x*10 + int(b[i]) - '0'
+    }
+    return x, i
+}
+③
+    for i := 0; i &lt; len(b); {
+        x, i = nextInt(b, i)
+        fmt.Println(x)
+    }
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go 関数の戻り値または結果の「パラメータ」には名前を付けることができ、入力パラメータと同様に通常の変数として使用できます。名前を付けると、関数の実行開始時にそれぞれの型のゼロ値に初期化されます。関数が引数なしの return 文を実行する場合、結果パラメータの現在の値が戻り値として使用されます。
+名前は必須ではありませんが、コードを短く明確にすることができます。つまり、名前はドキュメントとなるのです。 nextInt の結果に名前を付けると、どの int がどの戻り値であるかが明確になります。
+①
+名前付きの結果は初期化され、装飾のない戻り値に結び付けられるため、簡潔さと明確さの両方を実現できます。以下は、名前付き結果を効果的に使用した io.ReadFull のバージョンです。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go の defer 文は、関数呼び出し（deferred 関数）を、defer 文を実行する関数が戻る直前に実行するようにスケジュールします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The arguments to the deferred function (which include the receiver if the function is a method) are evaluated when the defer executes, not when the call executes. Besides avoiding worries about variables changing values as the function executes, this means that a single deferred call site can defer multiple function executions. Here's a silly example.
+②
+Deferred functions are executed in LIFO order, so this code will cause 4 3 2 1 0 to be printed when the function returns. A more plausible example is a simple way to trace function execution through the program. We could write a couple of simple tracing routines like this:
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go's defer statement schedules a function call (the deferred function) to be run immediately before the function executing the defer returns. It's an unusual but effective way to deal with situations such as resources that must be released regardless of which path a function takes to return. The canonical examples are unlocking a mutex or closing a file.
+①
+Deferring a call to a function such as Close has two advantages. First, it guarantees that you will never forget to close the file, a mistake that's easy to make if you later edit the function to add a new return path. Second, it means that the close sits near the open, which is much clearer than placing it at the end of the function.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">遅延関数の引数（関数がメソッドの場合はレシーバーも含まれます）は、呼び出しの実行時ではなく、遅延関数の実行時に評価されます。これは、関数の実行中に変数の値が変更される心配がないだけでなく、単一の遅延呼び出し箇所で複数の関数の実行を遅延できることも意味します。以下に簡単な例を示します。
+②
+遅延関数は LIFO 順序で実行されるため、このコードを実行すると、関数が戻ったときに 4 3 2 1 0 と表示されます。より現実的な例として、プログラム全体で関数の実行をトレースする簡単な方法があります。次のような簡単なトレースルーチンをいくつか記述できます。
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go の defer 文は、関数呼び出し（deferred 関数）を、defer 文を実行する関数が戻る直前に実行するようにスケジュールします。これは、関数がどのパスを通って戻るかに関係なく解放しなければならないリソースなどの状況に対処するための、珍しいながらも効果的な方法です。典型的な例としては、ミューテックスのロック解除やファイルのクローズなどが挙げられます。
+①
+Close のような関数の呼び出しを遅延させることには、2つの利点があります。1つ目は、ファイルのクローズを忘れることがないことです。これは、関数を後で編集して新しい戻りパスを追加した場合に起こりやすいミスです。2つ目は、close が open の近くに置かれるため、関数の最後に置くよりもはるかに明確になります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">遅延関数の引数（関数がメソッドの場合はレシーバーも含まれます）は、呼び出しの実行時ではなく、遅延関数の実行時に評価されます。
+遅延関数は LIFO 順序で実行される
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">遅延関数の引数は遅延関数の実行時に評価されるという事実を活用すれば、より効果的な実装が可能になります。トレースルーチンは、トレース解除ルーチンへの引数を設定できます。次の例をご覧ください。
+④
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">④
+func trace(s string) string {
+    fmt.Println("entering:", s)
+    return s
+}
+func un(s string) {
+    fmt.Println("leaving:", s)
+}
+func a() {
+    defer un(trace("a"))
+    fmt.Println("in a")
+}
+func b() {
+    defer un(trace("b"))
+    fmt.Println("in b")
+    a()
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">④のつづき
+func main() {
+    b()
+}
+⑤
+entering: b
+in b
+entering: a
+in a
+leaving: a
+leaving: b
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下を表示する。
+⑤
+他の言語のブロックレベルのリソース管理に慣れたプログラマーにとって、defer は奇妙に思えるかもしれません。しかし、defer の最も興味深く強力な応用は、まさにブロックベースではなく関数ベースであるという事実から生まれます。panic とrecover のセクションでは、defer の可能性の別の例を紹介します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">new(T)は、メモリを初期化せず、T型の新しい項目のためにゼロクリアされたストレージを割り当て、そのアドレスである*T型の値を返します。
+newによって返されるメモリはゼロクリアされるため、データ構造を設計する際に、型のゼロ値は、それ以上初期化せずに使用できるようにしておく。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go has two allocation primitives, the built-in functions new and make. They do different things and apply to different types, which can be confusing, but the rules are simple. Let's talk about new first. It's a built-in function that allocates memory, but unlike its namesakes in some other languages it does not initialize the memory, it only zeros it. That is, new(T) allocates zeroed storage for a new item of type T and returns its address, a value of type *T. In Go terminology, it returns a pointer to a newly allocated zero value of type T.
+Since the memory returned by new is zeroed, it's helpful to arrange when designing your data structures that the zero value of each type can be used without further initialization. This means a user of the data structure can create one with new and get right to work. For example, the documentation for bytes.Buffer states that "the zero value for Buffer is an empty buffer ready to use." Similarly, sync.Mutex does not have an explicit constructor or Init method. Instead, the zero value for a sync.Mutex is defined to be an unlocked mutex.
+The zero-value-is-useful property works transitively. Consider this type declaration.
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Values of type SyncedBuffer are also ready to use immediately upon allocation or just declaration. In the next snippet, both p and v will work correctly without further arrangement.
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SyncedBuffer 型の値は、割り当て後または宣言後すぐに使用できます。次のスニペットでは、p と v はどちらも追加の調整なしで正しく動作します。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Goには、組み込み関数のnewとmakeという2つのメモリ割り当てプリミティブがあります。これらは異なる動作をし、異なる型に適用されるため、混乱するかもしれませんが、ルールは単純です。まずはnewについて説明します。これはメモリを割り当てる組み込み関数ですが、他の言語の同名の関数とは異なり、メモリを初期化せず、ゼロクリアするだけです。つまり、new(T)はT型の新しい項目のためにゼロクリアされたストレージを割り当て、そのアドレスである*T型の値を返します。Goの用語では、これはT型の新しく割り当てられたゼロ値へのポインタを返します。
+newによって返されるメモリはゼロクリアされるため、データ構造を設計する際に、各型のゼロ値をそれ以上初期化せずに使用できるようにしておくと便利です。つまり、データ構造のユーザーはnewを使ってゼロ値を作成し、すぐに作業を開始できます。例えば、bytes.Bufferのドキュメントには、「Bufferのゼロ値は、使用可能な空のバッファです」と記載されています。同様に、sync.Mutexには明示的なコンストラクタやInitメソッドはありません。代わりに、sync.Mutex のゼロ値は、ロックされていないミューテックスとして定義されます。
+ゼロ値が有用であるという特性は推移的に作用します。この型宣言を考えてみましょう。
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+type SyncedBuffer struct {
+    lock    sync.Mutex
+    buffer  bytes.Buffer
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+p := new(SyncedBuffer)  // type *SyncedBuffer
+var v SyncedBuffer      // type  SyncedBuffer
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">場合によっては、ゼロ値だけでは不十分で、初期化コンストラクタが必要になります。これは、パッケージ os から派生したこの例のようなものです。
+①
+この例にはボイラープレートが大量に含まれています。複合リテラル、つまり評価されるたびに新しいインスタンスを作成する式を使用することで、これを簡素化できます。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">③
+    return &amp;File{fd, name, nil, 0}
+④
+    return &amp;File{fd: fd, name: name}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑤
+a := [...]string   {Enone: "no error", Eio: "Eio", Einval: "invalid argument"}
+s := []string      {Enone: "no error", Eio: "Eio", Einval: "invalid argument"}
+m := map[int]string{Enone: "no error", Eio: "Eio", Einval: "invalid argument"}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">複合リテラルは、配列、スライス、マップに対しても作成でき、フィールドラベルは必要に応じてインデックスまたはマップキーになります。これらの例では、Enone、Eio、Einval の値が異なっている限り、初期化はそれらの値に関係なく機能します。
+⑤
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C言語とは異なり、ローカル変数のアドレスを返しても全く問題ありません。関数が返された後も、その変数に関連付けられた記憶域は保持されます。実際、複合リテラルのアドレスを取得すると、評価されるたびに新しいインスタンスが割り当てられるため、この最後の2行を結合することができます。
+③
+複合リテラルのフィールドは順番に配置され、すべて存在する必要があります。ただし、要素を明示的にフィールド:値のペアとしてラベル付けすることで、初期化子は任意の順序で出現でき、存在しないものはそれぞれゼロ値として残ります。したがって、次のように記述できます。
+④
+限定的なケースとして、複合リテラルにフィールドが全く含まれていない場合、その型に対してゼロ値が作成されます。式 new(File) と &amp;File{} は同等です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite literals can also be created for arrays, slices, and maps, with the field labels being indices or map keys as appropriate. In these examples, the initializations work regardless of the values of Enone, Eio, and Einval, as long as they are distinct.
+⑤
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that, unlike in C, it's perfectly OK to return the address of a local variable; the storage associated with the variable survives after the function returns. In fact, taking the address of a composite literal allocates a fresh instance each time it is evaluated, so we can combine these last two lines.
+③
+The fields of a composite literal are laid out in order and must all be present. However, by labeling the elements explicitly as field:value pairs, the initializers can appear in any order, with the missing ones left as their respective zero values. Thus we could say
+④
+As a limiting case, if a composite literal contains no fields at all, it creates a zero value for the type. The expressions new(File) and &amp;File{} are equivalent.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">組み込み関数 make(T, args) は、スライス、マップ、チャネルのみを作成し、T 型 (*T ではない) の初期化済み (ゼロではない) の値を返します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to allocation. The built-in function make(T, args) serves a purpose different from new(T). It creates slices, maps, and channels only, and it returns an initialized (not zeroed) value of type T (not *T). The reason for the distinction is that these three types represent, under the covers, references to data structures that must be initialized before use. A slice, for example, is a three-item descriptor containing a pointer to the data (inside an array), the length, and the capacity, and until those items are initialized, the slice is nil. For slices, maps, and channels, make initializes the internal data structure and prepares the value for use. For instance,
+①
+allocates an array of 100 ints and then creates a slice structure with length 10 and a capacity of 100 pointing at the first 10 elements of the array. (When making a slice, the capacity can be omitted; see the section on slices for more information.) In contrast, new([]int) returns a pointer to a newly allocated, zeroed slice structure, that is, a pointer to a nil slice value.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">These examples illustrate the difference between new and make.
+②
+Remember that make applies only to maps, slices and channels and does not return a pointer. To obtain an explicit pointer allocate with new or take the address of a variable explicitly.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">割り当てに戻りましょう。組み込み関数 make(T, args) は new(T) とは異なる目的を持ちます。スライス、マップ、チャネルのみを作成し、T 型 (*T ではない) の初期化済み (ゼロではない) の値を返します。この区別の理由は、これら 3 つの型が、使用前に初期化する必要があるデータ構造への参照を内部的に表しているためです。例えば、スライスは、配列内のデータへのポインタ、長さ、容量を含む 3 つの項目を持つ記述子であり、これらの項目が初期化されるまではスライスは nil です。スライス、マップ、チャネルの場合、make は内部データ構造を初期化し、値を使用できるように準備します。例えば、
+①
+は 100 個の int からなる配列を割り当て、長さ 10、容量 100 のスライス構造体を作成し、配列の最初の 10 要素を指します。 （スライスを作成する場合、容量は省略可能です。詳しくはスライスのセクションを参照してください。）一方、new([]int) は、新しく割り当てられ、ゼロが設定されたスライス構造体へのポインタ、つまり nil スライス値へのポインタを返します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">これらの例は、new と make の違いを示しています。
+②
+make はマップ、スライス、チャネルにのみ適用され、ポインタを返さないことに注意してください。明示的にポインタを取得するには、new で割り当てるか、変数のアドレスを明示的に取得してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+make([]int, 10, 100)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+var p *[]int = new([]int)       // allocates slice structure; *p == nil; rarely useful
+var v  []int = make([]int, 100) // the slice v now refers to a new array of 100 ints
+// Unnecessarily complex:
+var p *[]int = new([]int)
+*p = make([]int, 100, 100)
+// Idiomatic:
+v := make([]int, 100)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">make はマップ、スライス、チャネルにのみ適用され、ポインタを返さない
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配列はメモリの詳細なレイアウトを計画する際に役立ち、場合によってはメモリ割り当てを回避するのにも役立ちますが、主にスライスの構成要素として機能します。スライスについては次のセクションで説明します。このトピックの基礎知識として、配列について少し説明します。
+GoとCでは、配列の動作に大きな違いがあります。Goでは、
+・配列は値です。ある配列を別の配列に代入すると、すべての要素がコピーされます。
+・特に、関数に配列を渡すと、関数は配列へのポインタではなく、配列のコピーを受け取ります。
+・配列のサイズはその型の一部です。[10]int型と[20]int型は異なります。
+配列の値の特性は便利ですが、コストがかかります。Cのような動作と効率を求める場合は、配列へのポインタを渡すことができます。
+①
+しかし、このスタイルでさえGoの慣用的なスタイルではありません。代わりにスライスを使用してください。
+</t>
+    <rPh sb="288" eb="290">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="293" eb="295">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・配列は値です。ある配列を別の配列に代入すると、すべての要素がコピーされます。
+・特に、関数に配列を渡すと、関数は配列へのポインタではなく、配列のコピーを受け取ります。
+・配列のサイズはその型の一部です。[10]int型と[20]int型は異なります。
+配列へのポインタを渡すことができるが、スライスを使用すべき。</t>
+    <rPh sb="155" eb="157">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スライスは基となる配列への参照を保持し、あるスライスを別のスライスに代入すると、両方とも同じ配列を参照します。
+関数がスライス引数を取る場合、スライスの要素に加えた変更は呼び出し元から参照可能になります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スライスは配列をラップすることで、データシーケンスへのより汎用的で強力かつ便利なインターフェースを提供します。変換行列など、明示的に次元を持つ項目を除き、Go における配列プログラミングのほとんどは、単純な配列ではなくスライスを用いて行われます。
+スライスは基となる配列への参照を保持し、あるスライスを別のスライスに代入すると、両方とも同じ配列を参照します。関数がスライス引数を取る場合、スライスの要素に加えた変更は呼び出し元から参照可能になります。これは、基となる配列へのポインタを渡すのと同様です。したがって、Read 関数は、ポインタとカウントではなく、スライス引数を取ることができます。スライス内の長さは、読み取るデータ量の上限を設定します。パッケージ os の File 型の Read メソッドのシグネチャを以下に示します。
+①
+このメソッドは、読み取ったバイト数と、エラー値（存在する場合）を返します。より大きなバッファ buf の最初の 32 バイトを読み込むには、バッファをスライス（ここでは動詞として使用）します。
+②
+このようなスライスは一般的かつ効率的です。実際、効率性はさておき、次のスニペットでもバッファの最初の32バイトを読み取ります。
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スライスの長さは、基になる配列の制限内に収まる限り変更できます。スライス自身のスライスに代入するだけです。スライスの容量は組み込み関数 cap でアクセスでき、スライスが取り得る最大長を報告します。以下は、スライスにデータを追加する関数です。データが容量を超えた場合、スライスは再割り当てされます。結果のスライスが返されます。この関数は、len と cap が nil スライスに適用された場合に有効であるという事実を利用し、0 を返します。
+④
+Append はスライスの要素を変更できますが、スライス自体（ポインタ、長さ、容量を保持する実行時データ構造）は値渡しされるため、後でスライスを返す必要があります。
+スライスに追加するという考え方は非常に便利なので、組み込み関数 append に含まれています。ただし、この関数の設計を理解するには、もう少し情報が必要なので、後で説明します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スライスの容量（スライスが取り得る最大長）は組み込み関数 cap で取得できる
+</t>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go の配列とスライスは 1 次元です。2 次元配列またはスライスに相当するものを作成するには、次のように配列の配列またはスライスのスライスを定義する必要があります。
+①
+スライスは可変長であるため、各スライスの長さを異なる値にすることができます。これはよくある状況で、LinesOfText の例のように、各行の長さが独立しています。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go の配列とスライスは 1 次元です。
+2 次元配列またはスライスは、配列の配列またはスライスのスライスとして定義する
+スライスは可変長</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2Dスライスの割り当てが必要になる場合があります。例えば、ピクセルのスキャンラインを処理する場合などです。これを実現するには2つの方法があります。1つは各スライスを個別に割り当てる方法、もう1つは単一の配列を割り当て、個々のスライスをその配列にポインタとして渡す方法です。どちらを使用するかはアプリケーションによって異なります。スライスが拡大または縮小する可能性がある場合は、次のラインを上書きしないように個別に割り当てるべきです。そうでない場合は、1回の割り当てでオブジェクトを構築する方が効率的です。参考までに、2つの方法の概要を以下に示します。まず、1行ずつ割り当てる方法：
+③
+次に、1回の割り当てで複数のラインにスライスする方法：
+④
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2次元スライスは、2種類ある。
+・2次元配列にして、配列ごとにスライスを割り当てる
+・単一配列を割り当て、単一の配列をスライスで区切る</t>
+    <rPh sb="1" eb="3">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ジゲンハイレツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マップは、コロンで区切られたキーと値のペアを持つ通常の複合リテラル構文を使用して構築できる
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マップは、ある型の値（キー）を別の型の値（要素または値）に関連付ける、便利で強力な組み込みデータ構造です。キーには、整数、浮動小数点数、複素数、文字列、ポインタ、インターフェース（動的型が等価性をサポートしている限り）、構造体、配列など、等価演算子が定義されている任意の型を使用できます。スライスは等価性が定義されていないため、マップのキーとして使用できません。スライスと同様に、マップは基になるデータ構造への参照を保持します。マップの内容を変更する関数にマップを渡すと、その変更は呼び出し元で確認できます。
+マップは、コロンで区切られたキーと値のペアを持つ通常の複合リテラル構文を使用して構築できるため、初期化時に簡単に構築できます。
+①
+マップ値の代入と取得は、インデックスが整数である必要がないことを除けば、配列やスライスの場合と構文的には似ています。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マップに存在しないキーでマップ値を取得しようとすると、マップ内のエントリの型に応じた0が返されます。例えば、マップに整数が含まれている場合、存在しないキーを検索すると0が返されます。セットは、bool型の値を持つマップとして実装できます。マップエントリをtrueに設定して値をセットに格納し、単純なインデックスでテストします。
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps are a convenient and powerful built-in data structure that associate values of one type (the key) with values of another type (the element or value). The key can be of any type for which the equality operator is defined, such as integers, floating point and complex numbers, strings, pointers, interfaces (as long as the dynamic type supports equality), structs and arrays. Slices cannot be used as map keys, because equality is not defined on them. Like slices, maps hold references to an underlying data structure. If you pass a map to a function that changes the contents of the map, the changes will be visible in the caller.
+Maps can be constructed using the usual composite literal syntax with colon-separated key-value pairs, so it's easy to build them during initialization.
+①
+Assigning and fetching map values looks syntactically just like doing the same for arrays and slices except that the index doesn't need to be an integer.
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">An attempt to fetch a map value with a key that is not present in the map will return the zero value for the type of the entries in the map. For instance, if the map contains integers, looking up a non-existent key will return 0. A set can be implemented as a map with value type bool. Set the map entry to true to put the value in the set, and then test it by simple indexing.
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+var timeZone = map[string]int{
+    "UTC":  0*60*60,
+    "EST": -5*60*60,
+    "CST": -6*60*60,
+    "MST": -7*60*60,
+    "PST": -8*60*60,
+}
+②
+offset := timeZone["EST"]
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">③
+attended := map[string]bool{
+    "Ann": true,
+    "Joe": true,
+    ...
+}
+if attended[person] { // will be false if person is not in the map
+    fmt.Println(person, "was at the meeting")
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">To delete a map entry, use the delete built-in function, whose arguments are the map and the key to be deleted. It's safe to do this even if the key is already absent from the map.
+⑦
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マップエントリを削除するには、組み込み関数 delete を使用します。この関数の引数は、マップと削除するキーです。キーが既にマップに存在しない場合でも、この関数は安全に実行できます。
+⑦
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦
+delete(timeZone, "PDT")  // Now on Standard Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マップエントリを削除するには、組み込み関数 delete を使用します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes you need to distinguish a missing entry from a zero value. Is there an entry for "UTC" or is that 0 because it's not in the map at all? You can discriminate with a form of multiple assignment.
+④
+For obvious reasons this is called the “comma ok” idiom. In this example, if tz is present, seconds will be set appropriately and ok will be true; if not, seconds will be set to zero and ok will be false. Here's a function that puts it together with a nice error report:
+⑤
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">To test for presence in the map without worrying about the actual value, you can use the blank identifier (_) in place of the usual variable for the value.
+⑥
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">欠落したエントリとゼロ値を区別する必要がある場合があります。「UTC」のエントリは存在するのか、それともマップに全く存在しないため0になっているのか？多重代入の形式で区別できます。
+④
+当然のことながら、これは「カンマok」イディオムと呼ばれます。この例では、tz が存在する場合、seconds が適切に設定され、ok は true になります。存在しない場合、seconds は 0 に設定され、ok は false になります。これを分かりやすいエラーレポートとともにまとめる関数を以下に示します。
+⑤
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">④
+var seconds int
+var ok bool
+seconds, ok = timeZone[tz]
+⑤
+func offset(tz string) int {
+    if seconds, ok := timeZone[tz]; ok {
+        return seconds
+    }
+    log.Println("unknown time zone:", tz)
+    return 0
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑥
+_, present := timeZone[tz]
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+var x uint64 = 1&lt;&lt;64 - 1
+fmt.Printf("%d %x; %d %x\n", x, x, int64(x), int64(x))
+③
+18446744073709551615 ffffffffffffffff; -1 -1
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">④
+fmt.Printf("%v\n", timeZone)  // or just fmt.Println(timeZone)
+⑤
+map[CST:-21600 EST:-18000 MST:-25200 PST:-28800 UTC:0]
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go におけるフォーマット出力は、C の printf ファミリーに似たスタイルを採用していますが、より豊富で汎用的です。関数は fmt パッケージに含まれており、名前は大文字で始まります（fmt.Printf、fmt.Fprintf、fmt.Sprintf など）。文字列関数（Sprintf など）は、指定されたバッファに値を入力するのではなく、文字列を返します。
+フォーマット文字列を指定する必要はありません。Printf、Fprintf、Sprintf にはそれぞれ、Print と Println といった関数のペアが用意されています。これらの関数はフォーマット文字列を取らず、代わりに各引数のデフォルトフォーマットを生成します。Println 版は引数の間に空白を挿入し、出力に改行を追加します。一方、Print 版は、どちらのオペランドも文字列でない場合にのみ空白を追加します。この例では、各行で同じ出力が生成されます。
+①
+フォーマットされたprint関数 fmt.Fprint とその類似関数は、io.Writer インターフェースを実装する任意のオブジェクトを第一引数として受け取ります。変数 os.Stdout と os.Stderr はおなじみのインスタンスです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here things start to diverge from C. First, the numeric formats such as %d do not take flags for signedness or size; instead, the printing routines use the type of the argument to decide these properties.
+②
+prints
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Formatted printing in Go uses a style similar to C's printf family but is richer and more general. The functions live in the fmt package and have capitalized names: fmt.Printf, fmt.Fprintf, fmt.Sprintf and so on. The string functions (Sprintf etc.) return a string rather than filling in a provided buffer.
+You don't need to provide a format string. For each of Printf, Fprintf and Sprintf there is another pair of functions, for instance Print and Println. These functions do not take a format string but instead generate a default format for each argument. The Println versions also insert a blank between arguments and append a newline to the output while the Print versions add blanks only if the operand on neither side is a string. In this example each line produces the same output.
+①
+The formatted print functions fmt.Fprint and friends take as a first argument any object that implements the io.Writer interface; the variables os.Stdout and os.Stderr are familiar instances.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数を 10 進数に変換するなど、デフォルトの変換だけが必要な場合は、包括的なフォーマット %v (「値」の略) を使用できます。結果は Print や Println が生成するものと全く同じです。さらに、このフォーマットは配列、スライス、構造体、マップなど、あらゆる値を印刷できます。前のセクションで定義したタイムゾーンマップの印刷文を以下に示します。
+④
+出力は次のようになります。
+⑤
+マップの場合、Printf などの関数は出力をキーで辞書式にソートします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you just want the default conversion, such as decimal for integers, you can use the catchall format %v (for “value”); the result is exactly what Print and Println would produce. Moreover, that format can print any value, even arrays, slices, structs, and maps. Here is a print statement for the time zone map defined in the previous section.
+④
+which gives output:
+⑤
+For maps, Printf and friends sort the output lexicographically by key.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When printing a struct, the modified format %+v annotates the fields of the structure with their names, and for any value the alternate format %#v prints the value in full Go syntax.
+⑥
+prints
+⑦
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体を出力する場合、修正された形式 %+v は構造体のフィールドに名前を注釈として付与し、任意の値については代替形式 %#v は値を完全な Go 構文で出力します。
+⑥
+は、以下を表示します。
+⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここで C との相違点が始まります。まず、%d などの数値フォーマットは、符号やサイズに関するフラグを受け取りません。代わりに、printのルーチンは引数の型に基づいてこれらのプロパティを決定します。
+②
+は、以下を表示します。
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(Note the ampersands.) That quoted string format is also available through %q when applied to a value of type string or []byte. The alternate format %#q will use backquotes instead if possible. (The %q format also applies to integers and runes, producing a single-quoted rune constant.) Also, %x works on strings, byte arrays and byte slices as well as on integers, generating a long hexadecimal string, and with a space in the format (% x) it puts spaces between the bytes.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Another handy format is %T, which prints the type of a value.
+⑧
+prints
+⑨
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（アンパサンドに注意してください。）この引用符で囲まれた文字列形式は、文字列型または[]byte型の値に%qを適用することでも利用できます。代替形式である%#qは、可能な場合はバッククォートを使用します。（%q形式は整数とルーンにも適用され、シングルクォートで囲まれたルーン定数を生成します。）また、%xは整数だけでなく、文字列、バイト配列、バイトスライスにも適用され、長い16進文字列を生成します。また、形式（% x）にスペースを含めると、バイト間にスペースが挿入されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">もう一つの便利な形式は%Tで、これは値の型を表示します。
+⑧
+は、以下を表示します。
+⑨
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑧
+fmt.Printf("%T\n", timeZone)
+⑨
+map[string]int
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">カスタム型のデフォルトのフォーマットを制御したい場合は、その型に対してString()というシグネチャを持つメソッドを定義するだけです。この単純な型Tの場合、次のように記述します。
+⑩
+次の形式で出力します。
+⑪
+(T型の値とTへのポインタの両方を出力する必要がある場合は、Stringのレシーバーは値型である必要があります。この例では、構造体型の場合、より効率的で慣用的なポインタ型を使用しています。詳細については、後述の「ポインタ型と値レシーバーの比較」セクションを参照してください。)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">もう1つのprintの手法は、printルーチンの引数を別の同様のルーチンに直接渡すことです。Printf のシグネチャでは、最終引数に ...interface{} 型を使用して、任意の数の（任意の型の）パラメータを、formatの後に指定できます。
+⑭
+Printf 関数内では、v は []interface{} 型の変数のように動作しますが、別の可変長引数関数に渡されると、通常の引数リストのように動作します。以下は、上で使用した関数 log.Println の実装です。この関数は、実際のフォーマット処理のために引数を fmt.Sprintln に直接渡します。
+⑮
+Sprintln のネストされた呼び出しで v の後に ... を記述することで、コンパイラに v を引数リストとして扱うように指示します。そうしないと、v は単一のスライス引数として渡されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There's even more to printing than we've covered here. See the godoc documentation for package fmt for the details.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">By the way, a ... parameter can be of a specific type, for instance ...int for a min function that chooses the least of a list of integers:
+⑯
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">printには、ここで説明した以外にも多くの機能があります。詳しくは、godoc の fmt パッケージのドキュメントをご覧ください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ちなみに、... パラメータは特定の型にすることもできます。例えば、整数リストから最小値を選択する min 関数の場合は ...int です。
+⑯
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Now we have the missing piece we needed to explain the design of the append built-in function. The signature of append is different from our custom Append function above. Schematically, it's like this:
+func append(slice []T, elements ...T) []T
+where T is a placeholder for any given type. You can't actually write a function in Go where the type T is determined by the caller. That's why append is built in: it needs support from the compiler.
+What append does is append the elements to the end of the slice and return the result. The result needs to be returned because, as with our hand-written Append, the underlying array may change. This simple example
+①
+prints [1 2 3 4 5 6]. So append works a little like Printf, collecting an arbitrary number of arguments.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">But what if we wanted to do what our Append does and append a slice to a slice? Easy: use ... at the call site, just as we did in the call to Output above. This snippet produces identical output to the one above.
+②
+Without that ..., it wouldn't compile because the types would be wrong; y is not of type int.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">これで、組み込み関数 append の設計を説明するために必要な情報が揃いました。append のシグネチャは、上記のカスタム Append 関数とは異なります。図式的には以下のようになります。
+func append(slice []T, elements ...T) []T
+ここで、T は任意の型のプレースホルダーです。Go では、型 T が呼び出し元によって決定される関数を実際に記述することはできません。そのため、append は組み込み関数として提供されています。つまり、コンパイラのサポートが必要です。
+append は、スライスの末尾に要素を追加し、結果を返します。手書きの Append と同様に、基になる配列が変更される可能性があるため、結果を返す必要があります。この簡単な例では、
+①
+[1 2 3 4 5 6] と出力されます。つまり、append は Printf に少し似ており、任意の数の引数を受け取ります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">では、Append と同じように、スライスをスライスに追加したい場合はどうすればよいでしょうか？簡単です。上記の Output の呼び出しと同様に、呼び出し元で ... を使用します。このスニペットは、上記と同じ出力を生成します。
+②
+このコードがないと、型が間違っているためコンパイルできません。y は int 型ではありません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+x := []int{1,2,3}
+x = append(x, 4, 5, 6)
+fmt.Println(x)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+x := []int{1,2,3}
+y := []int{4,5,6}
+x = append(x, y...)
+fmt.Println(x)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表面的にはCやC++の初期化とそれほど変わらないように見えますが、Goの初期化はより強力です。初期化中に複雑な構造を構築でき、初期化されたオブジェクト間の順序付けの問題、さらには異なるパッケージ間でも適切に処理されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go言語における定数は、その名の通り定数です。関数内でローカル変数として定義されている場合でも、コンパイル時に生成され、数値、文字（ルーン）、文字列、またはブール値のみを使用できます。コンパイル時の制約のため、定数を定義する式は、コンパイラによって評価可能な定数式でなければなりません。例えば、1&lt;&lt;3は定数式ですが、math.Sin(math.Pi/4)はmath.Sin関数の呼び出しが実行時に行われる必要があるため、定数式ではありません。
+Go言語では、列挙型定数はiota列挙子を用いて作成されます。iotaは式の一部に使用でき、式は暗黙的に繰り返すことができるため、複雑な値のセットを簡単に構築できます。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String などのメソッドを任意のユーザー定義型にアタッチすることで、任意の値を自動的にフォーマットして出力できるようになります。この手法は構造体に適用されることが多いですが、ByteSize のような浮動小数点型などのスカラー型にも役立ちます。
+②
+式 YB は 1.00YB と出力されますが、ByteSize(1e13) は 9.09TB と出力されます。
+ここで ByteSize の String メソッドを実装するために Sprintf を使用していることは安全です（無限に繰り返し実行されません）。これは、変換のためではなく、文字列形式ではない %f を使って Sprintf を呼び出しているためです。Sprintf は文字列が必要な場合にのみ String メソッドを呼び出しますが、%f は浮動小数点値を必要とします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数は定数と同様に初期化できますが、初期化子は実行時に計算される一般的な式にすることができます。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に、各ソースファイルは、必要な状態を設定するための引数を取らない  init 関数を独自に定義できます。（実際には、各ファイルは複数の init 関数を持つことができます。）そして、finally は最終的に、つまりパッケージ内のすべての変数宣言の初期化子が評価された後に init が呼び出され、それらの初期化子はインポートされたすべてのパッケージの初期化が完了した後にのみ評価されます。
+宣言として表現できない初期化に加えて、init 関数の一般的な用途は、実際の実行が始まる前にプログラム状態の正しさを検証または修復することです。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ByteSize で見たように、メソッドは任意の名前付き型（ポインタとインターフェースを除く）に対して定義できます。レシーバは構造体である必要はありません。
+上記のスライスの説明では、Append 関数を記述しました。これをスライスのメソッドとして定義することもできます。そのためには、まずメソッドをバインドできる名前付き型を宣言し、その型の値をメソッドのレシーバとして指定します。
+①
+この方法でも、メソッドは更新されたスライスを返す必要があります。この不便さは、メソッドをレシーバとして ByteSlice へのポインタを取るように再定義することで解消できます。こうすることで、メソッドは呼び出し元のスライスを上書きできるようになります。
+②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">実際、さらに良い方法があります。関数を次のように標準のWriteメソッドのように変更すれば、
+③
+型 *ByteSlice は標準インターフェース io.Writer を満たすので便利です。例えば、このメソッドにprint文を出力できます。
+④
+ByteSlice のアドレスを渡しているのは、*ByteSlice だけが io.Writer を満たすためです。レシーバーにおけるポインタと値に関するルールは、値メソッドはポインタと値の両方で呼び出すことができますが、ポインタメソッドはポインタでのみ呼び出すことができるというものです。
+このルールは、ポインタメソッドがレシーバーを変更できるという点に起因しています。ポインタメソッドを値に対して呼び出すと、メソッドは値のコピーを受け取るため、変更内容は破棄されてしまいます。そのため、言語はこの誤りを許しません。ただし、便利な例外があります。値がアドレス指定可能な場合、言語はアドレス演算子を自動的に挿入することで、値に対してポインタメソッドを呼び出すという一般的なケースに対応します。この例では、変数 b はアドレス指定可能なので、Write メソッドを b.Write だけで呼び出すことができます。コンパイラはこれを (&amp;b).Write に書き換えます。
+ちなみに、バイトのスライスに対して Write メソッドを使用するという考え方こそが、bytes.Buffer の実装の核心です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go のインターフェースは、オブジェクトの振る舞いを指定する手段を提供します。つまり、何かがこれを実行できるなら、それをここで使用できます。既にいくつかの簡単な例を見てきました。カスタムプリンタは String メソッドで実装でき、Fprintf は Write メソッドを使って任意のデバイスに出力できます。Go コードでは、メソッドを 1 つまたは 2 つしか持たないインターフェースが一般的で、通常はメソッド名に由来する名前が付けられます。例えば、Write を実装するものには io.Writer が使われます。
+型は複数のインターフェースを実装できます。例えば、コレクションは sort パッケージ内のルーチン（Len()、Less(i, j int) bool、Swap(i, j int) など）でソートできます。また、カスタムフォーマッタも使用できます。この不自然な例では、Sequence は両方の条件を満たしています。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sequence の String メソッドは、Sprint が既にスライスに対して行っている処理を再現しています。（計算量も O(N²) と、これはあまり良くありません。）Sprint を呼び出す前に Sequence を単純な []int に変換すれば、この労力を分散でき、処理速度も向上します。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このメソッドは、StringメソッドからSprintfを安全に呼び出すための変換テクニックのもう一つの例です。型名を無視すれば、2つの型（Sequenceと[]int）は同じなので、これらの型間での変換は有効です。この変換によって新しい値が作成されるわけではなく、既存の値が一時的に新しい型になったかのように動作するだけです。（整数から浮動小数点数への変換など、新しい値を作成する有効な変換は他にもあります。）
+Goプログラムでは、式の型を変換して異なるメソッドセットにアクセスするのが慣例です。例えば、既存の型sort.IntSliceを使用すると、例全体を次のように簡略化できます。
+②
+これで、Sequenceに複数のインターフェース（ソートと出力）を実装する代わりに、データ項目を複数の型（Sequence、sort.IntSlice、および[]int）に変換できる機能を利用します。これらの型はそれぞれ、処理の一部を実行します。これは実際にはあまり一般的ではありませんが、効果的です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String()は、Stringerインターフェースに定義されたカスタム型の文字列表現を定義するために使うメソッドです。
+このメソッドを実装することで、任意の型に対してfmt.Printlnなどの関数が呼ばれた際の文字列表現をカスタマイズできます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type Stringer interface {
+    String() string
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・fmt.Sprintfの中でレシーバーパラメータを直接使用しない
+　　→オブジェクトのフィールドに直接使用する
+・基本は、値レシーバーを利用する。
+　　→値のコピーオーバーヘッドが大きい場合は、ポインタレシーバーも検討する。
+</t>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type switches are a form of conversion: they take an interface and, for each case in the switch, in a sense convert it to the type of that case. Here's a simplified version of how the code under fmt.Printf turns a value into a string using a type switch. If it's already a string, we want the actual string value held by the interface, while if it has a String method we want the result of calling the method.
+①
+The first case finds a concrete value; the second converts the interface into another interface. It's perfectly fine to mix types this way.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What if there's only one type we care about? If we know the value holds a string and we just want to extract it? A one-case type switch would do, but so would a type assertion. A type assertion takes an interface value and extracts from it a value of the specified explicit type. The syntax borrows from the clause opening a type switch, but with an explicit type rather than the type keyword:
+②
+and the result is a new value with the static type typeName. That type must either be the concrete type held by the interface, or a second interface type that the value can be converted to. To extract the string we know is in the value, we could write:
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">型スイッチは変換の一種です。インターフェースを受け取り、スイッチ内の各ケースにおいて、ある意味でそのケースの型に変換します。以下は、fmt.Printf のコードが型スイッチを使って値を文字列に変換する方法を簡略化したものです。値が既に文字列である場合は、インターフェースが保持している実際の文字列値を取得し、String メソッドを持つ場合は、そのメソッドを呼び出した結果を取得します。
+①
+最初のケースは具体的な値を見つけ、2 番目のケースはインターフェースを別のインターフェースに変換します。このように型を混在させても全く問題ありません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な型が 1 つだけの場合はどうでしょうか？値が文字列を保持していることがわかっていて、それを抽出したいだけの場合はどうでしょうか？1 ケースの型スイッチで十分ですが、型アサーションでも同様です。型アサーションはインターフェース値を受け取り、そこから指定された明示的な型の値を抽出します。構文は型スイッチの開始句から借用していますが、type キーワードではなく明示的な型を使用します。
+②
+結果は、静的型 typeName を持つ新しい値です。その型は、インターフェースが保持する具体的な型、または値を変換できる別のインターフェース型のいずれかである必要があります。値に含まれる文字列を抽出するには、次のように記述します。
+③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+type Stringer interface {
+    String() string
+}
+var value interface{} // Value provided by caller.
+switch str := value.(type) {
+case string:
+    return str
+case Stringer:
+    return str.String()
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+value.(typeName)
+③
+str := value.(string)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、値に文字列が含まれていない場合、プログラムは実行時エラーでクラッシュします。これを防ぐには、「カンマ、OK」イディオムを使用して、値が文字列かどうかを安全にテストします。
+④
+型アサーションが失敗した場合、str は依然として存在し、文字列型ですが、値はゼロ、つまり空文字列になります。
+この機能の例として、このセクションの冒頭で述べた型スイッチに相当する if-else 文を以下に示します。
+⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">型がインターフェースを実装するためだけに存在し、そのインターフェースを超えてエクスポートされるメソッドを持たない場合、型自体をエクスポートする必要はありません。インターフェースのみをエクスポートすることで、その値がインターフェースで記述されている以上の動作を持たないことが明確になります。また、共通メソッドのすべてのインスタンスについてドキュメントを繰り返す必要もありません。
+このような場合、コンストラクタは実装型ではなくインターフェース値を返す必要があります。例えば、ハッシュライブラリでは、crc32.NewIEEE と adler32.New はどちらもインターフェース型 hash.Hash32 を返します。Go プログラムで Adler-32 アルゴリズムを CRC-32 アルゴリズムに置き換えるには、コンストラクタ呼び出しを変更するだけで済みます。残りのコードはアルゴリズムの変更の影響を受けません。
+同様のアプローチにより、さまざまな crypto パッケージのストリーミング暗号アルゴリズムを、それらが連鎖するブロック暗号から分離することができます。crypto/cipher パッケージの Block インターフェースは、単一のデータブロックの暗号化を提供するブロック暗号の動作を指定します。そして、bufio パッケージと同様に、このインターフェースを実装する暗号パッケージは、ブロック暗号化の詳細を知らなくても、Stream インターフェースで表されるストリーミング暗号を構築するために使用できます。
+crypto/cipher インターフェースは次のようになります。
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下は、ブロック暗号をストリーミング暗号に変換するカウンターモード（CTR）ストリームの定義です。ブロック暗号の詳細は抽象化されている点に注意してください。
+②
+NewCTR は、特定の暗号化アルゴリズムとデータソースだけでなく、Block インターフェースの任意の実装と任意の Stream に適用されます。これらはインターフェース値を返すため、CTR 暗号化を他の暗号化モードに置き換えるのは局所的な変更です。コンストラクタ呼び出しを編集する必要がありますが、周囲のコードは結果を Stream としてのみ扱うため、違いは認識されません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほとんどあらゆるものにメソッドを付加できるため、ほぼあらゆるものがインターフェースを満たすことができます。一例として、Handler インターフェースを定義する http パッケージが挙げられます。Handler を実装するオブジェクトは、HTTP リクエストを処理できます。
+①
+ResponseWriter 自体は、クライアントにレスポンスを返すために必要なメソッドへのアクセスを提供するインターフェースです。これらのメソッドには標準の Write メソッドが含まれるため、io.Writer が使用できる場所であればどこでも http.ResponseWriter を使用できます。Request は、クライアントからのリクエストを解析した表現を含む構造体です。
+簡潔にするために、POST は無視し、HTTP リクエストは常に GET であると仮定します。この単純化は、ハンドラーの設定方法には影響しません。以下は、ページへのアクセス回数をカウントするハンドラーの簡単な実装です。
+②
+(テーマに沿って、Fprintf が http.ResponseWriter に出力できることに注目してください。) 実際のサーバーでは、ctr.n へのアクセスは同時アクセスから保護する必要があります。同時アクセス保護の提案については、sync パッケージと atom パッケージを参照してください。</t>
+    <rPh sb="554" eb="556">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="560" eb="562">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For reference, here's how to attach such a server to a node on the URL tree.
+③
+But why make Counter a struct? An integer is all that's needed. (The receiver needs to be a pointer so the increment is visible to the caller.)
+④
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What if your program has some internal state that needs to be notified that a page has been visited? Tie a channel to the web page.
+⑤
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参考までに、URLツリーのノードにこのようなサーバーを接続する方法を以下に示します。
+③
+しかし、なぜCounterを構造体にするのでしょうか？整数値だけで十分です。（呼び出し元がインクリメント値を参照できるように、レシーバーはポインタである必要があります。）
+④
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムに、ページが訪問されたことを通知する必要がある内部状態がある場合はどうすればよいでしょうか？Webページにチャネルを関連付けます。
+⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">③
+import "net/http"
+...
+ctr := new(Counter)
+http.Handle("/counter", ctr)
+④
+// Simpler counter server.
+type Counter int
+func (ctr *Counter) ServeHTTP(w http.ResponseWriter, req *http.Request) {
+    *ctr++
+    fmt.Fprintf(w, "counter = %d\n", *ctr)
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑤
+// A channel that sends a notification on each visit.
+// (Probably want the channel to be buffered.)
+type Chan chan *http.Request
+func (ch Chan) ServeHTTP(w http.ResponseWriter, req *http.Request) {
+    ch &lt;- req
+    fmt.Fprint(w, "notification sent")
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最後に、サーバーバイナリの呼び出し時に使用された引数を /args に表示したいとします。引数を出力する関数を書くのは簡単です。
+⑥
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑥
+func ArgServer() {
+    fmt.Println(os.Args)
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, let's say we wanted to present on /args the arguments used when invoking the server binary. It's easy to write a function to print the arguments.
+⑥
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How do we turn that into an HTTP server? We could make ArgServer a method of some type whose value we ignore, but there's a cleaner way. Since we can define a method for any type except pointers and interfaces, we can write a method for a function. The http package contains this code:
+⑦
+HandlerFunc is a type with a method, ServeHTTP, so values of that type can serve HTTP requests. Look at the implementation of the method: the receiver is a function, f, and the method calls f. That may seem odd but it's not that different from, say, the receiver being a channel and the method sending on the channel.
+To make ArgServer into an HTTP server, we first modify it to have the right signature.
+⑧
+ArgServer now has the same signature as HandlerFunc, so it can be converted to that type to access its methods, just as we converted Sequence to IntSlice to access IntSlice.Sort. The code to set it up is concise:
+⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">これをHTTPサーバーにするにはどうすればよいでしょうか？ ArgServer を、値を無視する型のメソッドにすることもできますが、より簡潔な方法があります。ポインタとインターフェース以外の型に対してメソッドを定義できるため、関数に対してメソッドを書くことができます。http パッケージには次のコードが含まれています。
+⑦
+HandlerFunc は ServeHTTP メソッドを持つ型なので、この型の値はHTTPリクエストを処理できます。メソッドの実装を見てみましょう。レシーバーは関数 f で、メソッドは f を呼び出します。奇妙に思えるかもしれませんが、例えばレシーバーがチャネルでメソッドがチャネルに送信する場合とそれほど違いはありません。
+ArgServer を HTTP サーバーにするには、まず適切なシグネチャを持つように変更します。
+⑧
+ArgServer は HandlerFunc と同じシグネチャを持つようになったため、IntSlice.Sort にアクセスするために Sequence を IntSlice に変換したのと同じように、HandlerFunc の型に変換してそのメソッドにアクセスできます。設定コードは簡潔です。
+⑨
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦
+// The HandlerFunc type is an adapter to allow the use of
+// ordinary functions as HTTP handlers.  If f is a function
+// with the appropriate signature, HandlerFunc(f) is a
+// Handler object that calls f.
+type HandlerFunc func(ResponseWriter, *Request)
+// ServeHTTP calls f(w, req).
+func (f HandlerFunc) ServeHTTP(w ResponseWriter, req *Request) {
+    f(w, req)
+}
+⑧
+// Argument server.
+func ArgServer(w http.ResponseWriter, req *http.Request) {
+    fmt.Fprintln(w, os.Args)
+}
+⑨
+http.Handle("/args", http.HandlerFunc(ArgServer))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When someone visits the page /args, the handler installed at that page has value ArgServer and type HandlerFunc. The HTTP server will invoke the method ServeHTTP of that type, with ArgServer as the receiver, which will in turn call ArgServer (via the invocation f(w, req) inside HandlerFunc.ServeHTTP). The arguments will then be displayed.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">誰かがページ /args にアクセスすると、そのページに設置されたハンドラーの値は ArgServer、型は HandlerFunc になります。HTTP サーバーは、その型のメソッド ServeHTTP を呼び出します。このメソッドは、ArgServer をレシーバーとして呼び出します。そして、HandlerFunc.ServeHTTP 内の f(w, req) 呼び出しによって ArgServer が呼び出されます。そして、引数が表示されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In this section we have made an HTTP server from a struct, an integer, a channel, and a function, all because interfaces are just sets of methods, which can be defined for (almost) any type.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このセクションでは、構造体、整数、チャネル、関数から HTTP サーバーを作成しました。これは、インターフェースがメソッドの集合に過ぎず、ほぼあらゆる型に対して定義できるためです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用のインポート、未使用の変数があると、コンパイルできない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用のインポートに関するエラーを抑止するには、インポートされたパッケージのシンボルを参照するためにブランク識別子を使用します。同様に、未使用の変数 fd を空の識別子に代入すると、未使用変数エラーは抑止されます。このバージョンのプログラムはコンパイル可能です。
+②
+慣例的に、インポートエラーを抑止するためのグローバル宣言は、インポートの直後に配置し、コメントアウトする必要があります。これは、簡単に見つけられるようにするためと、後でクリーンアップするためのリマインダーとして役立ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列、slice、string、mapをループする場合、またはチャンネルからデータを読み取る場合は、range句を使用してループを制御できます。
+③
+range内の最初の項目（キーまたはインデックス）のみが必要な場合は、2番目の項目を削除します。
+④
+range内の2番目の項目（値）のみが必要な場合は、ブランク識別子（アンダースコア）を使用して最初の項目を削除します。
+⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">実際の値を気にせずにマップ内に存在するかどうかを確認するには、通常の変数の代わりにブランク識別子 (_) を使用します。
+⑥
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージをインポートしたり、変数を宣言したにもかかわらず使用しなかったりするのはエラーです。未使用のインポートはプログラムを肥大化させ、コンパイル速度を低下させます。一方、初期化されているのに使用されていない変数は、少なくとも無駄な計算であり、より大きなバグの兆候である可能性があります。しかし、プログラムの開発が活発に行われている場合、未使用のインポートや変数が頻繁に発生し、コンパイルを続行するためにそれらを削除しても、後で再び必要になるという面倒な状況に陥ることがあります。ブランク識別子は、この問題の回避策となります。
+この書きかけのプログラムには、未使用のインポートが2つ（fmtとio）と未使用の変数が1つ（fd）あるため、コンパイルは実行されませんが、ここまでのコードが正しいかどうかを確認できれば幸いです。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">for range ループ内でのブランク識別子の使用は、一般的な状況である多重代入の特殊なケースです。
+代入の左側に複数の値が必要で、そのうちの1つの値がプログラムで使用されない場合には、代入の左側にブランク識別子を使用することでダミー変数を作成する必要がなくなり、その値が破棄されることが明確になります。例えば、値とエラーを返す関数を呼び出す場合で、エラーのみが重要な場合は、ブランク識別子を使用して無関係な値を破棄します。
+①
+エラーを無視するためにエラー値を破棄するコードを見かけることがあります。これは非常に悪い習慣です。エラーの戻り値は必ず確認してください。エラー値には何らかの理由があります。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用のインポートをブランク識別子に代入するグローバル変数を定義すると、未使用インポートのコンパイルエラーは抑止できる。このグローバル変数は、慣例的に、インポートの直後に配置する。
+未使用の変数をブランク識別子に代入すると、未使用変数のコンパイルエラーは抑止できる。
+</t>
+    <rPh sb="103" eb="106">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前の例にある fmt や io のような未使用のインポートは、最終的には使用するか削除する必要があります。空の代入は、コードが開発中であることを示します。しかし、明示的な使用法を示さずに、副作用のためだけにパッケージをインポートすることが有用な場合もあります。例えば、net/http/pprof パッケージは、init 関数の実行中に、デバッグ情報を提供する HTTP ハンドラーを登録します。このパッケージは API をエクスポートしていますが、ほとんどのクライアントはハンドラーの登録のみを必要とし、Web ページを介してデータにアクセスします。副作用のためだけにパッケージをインポートするには、パッケージ名を空の識別子に変更します。
+①
+この形式のインポートは、パッケージが副作用のためにインポートされていることを明確に示しています。なぜなら、このファイルではパッケージに名前がないためです。(名前があっても、その名前を使用しなかった場合、コンパイラはプログラムを拒否します。)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前述のインターフェースの説明で述べたように、型はインターフェースを実装していることを明示的に宣言する必要はありません。インターフェースのメソッドを実装するだけでインターフェースを実装します。実際には、ほとんどのインターフェース変換は静的であるため、コンパイル時にチェックされます。例えば、io.Reader を期待する関数に *os.File を渡した場合、*os.File が io.Reader インターフェースを実装していない限りコンパイルされません。
+ただし、一部のインターフェースチェックは実行時に行われます。例えば、Marshaler インターフェースを定義する encoding/json パッケージがあります。JSON エンコーダーは、そのインターフェースを実装する値を受け取ると、標準的な変換ではなく、値のマーシャリングメソッドを呼び出して JSON に変換します。エンコーダーは、実行時に次のような型アサーションを使用してこのプロパティをチェックします。
+①
+エラーチェックなど、インターフェース自体を実際に使用せずに、型がインターフェースを実装しているかどうかのみを確認する必要がある場合は、ブランク識別子を使用して型アサートされた値を無視します。
+②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このような状況が発生するケースの一つは、型を実装するパッケージ内で、その型が実際にインターフェースを満たしていることを保証する必要がある場合です。例えば、json.RawMessage のような型がカスタム JSON 表現を必要とする場合、json.Marshaler を実装する必要がありますが、コンパイラがこれを自動的に検証するような静的変換は存在しません。型が誤ってインターフェースを満たさない場合、JSON エンコーダは引き続き動作しますが、カスタム実装は使用されません。実装が正しいことを保証するために、パッケージ内でブランク識別子を使用したグローバル宣言を使用できます。
+③
+この宣言では、*RawMessage から Marshaler への変換を伴う代入には、*RawMessage が Marshaler を実装していることが必要であり、そのプロパティはコンパイル時にチェックされます。json.Marshaler インターフェースが変更された場合、このパッケージはコンパイルできなくなり、更新が必要であることが通知されます。
+この構文にブランク識別子が出現していることは、宣言が型チェックのためだけに存在し、変数を作成するためではないことを示しています。ただし、インターフェースを満たすすべての型に対してこれを行う必要はありません。慣例的に、このような宣言はコード内に静的な変換が既に存在しない場合にのみ使用されますが、これは稀なケースです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The same basic idea applies to structs, but with more far-reaching implications. The bufio package has two struct types, bufio.Reader and bufio.Writer, each of which of course implements the analogous interfaces from package io. And bufio also implements a buffered reader/writer, which it does by combining a reader and a writer into one struct using embedding: it lists the types within the struct but does not give them field names.
+③
+The embedded elements are pointers to structs and of course must be initialized to point to valid structs before they can be used. The ReadWriter struct could be written as
+④
+but then to promote the methods of the fields and to satisfy the io interfaces, we would also need to provide forwarding methods, like this:
+⑤
+By embedding the structs directly, we avoid this bookkeeping. The methods of embedded types come along for free, which means that bufio.ReadWriter not only has the methods of bufio.Reader and bufio.Writer, it also satisfies all three interfaces: io.Reader, io.Writer, and io.ReadWriter.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go does not provide the typical, type-driven notion of subclassing, but it does have the ability to “borrow” pieces of an implementation by embedding types within a struct or interface.
+Interface embedding is very simple. We've mentioned the io.Reader and io.Writer interfaces before; here are their definitions.
+①
+The io package also exports several other interfaces that specify objects that can implement several such methods. For instance, there is io.ReadWriter, an interface containing both Read and Write. We could specify io.ReadWriter by listing the two methods explicitly, but it's easier and more evocative to embed the two interfaces to form the new one, like this:
+②
+This says just what it looks like: A ReadWriter can do what a Reader does and what a Writer does; it is a union of the embedded interfaces. Only interfaces can be embedded within interfaces.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スレッド、コルーチン、プロセスといった既存の用語が誤った意味合いを抱かせるため、goroutine と呼ばれるようになりました。goroutine のモデルはシンプルです。つまり、同じアドレス空間で他の goroutine と並行して実行される関数です。軽量で、スタック領域の割り当てコストとほとんど変わりません。スタックは最初は小さいため、コストが低く、必要に応じてヒープ領域を割り当て（解放）ることで拡張されます。
+goroutine は複数の OS スレッドに多重化されるため、I/O 待機中など、あるスレッドがブロックされても、他のスレッドは引き続き実行されます。goroutine の設計により、スレッドの作成と管理に伴う多くの複雑な処理が隠蔽されます。
+関数またはメソッド呼び出しの前に go キーワードを付けると、その呼び出しが新しい goroutine で実行されます。呼び出しが完了すると、goroutine は何もせずに終了します（これは、Unix シェルでコマンドをバックグラウンドで実行するための &amp; 記法に似ています）。
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">関数リテラルは、goroutine 呼び出しで便利です。
+②
+Go では、関数リテラルはクロージャです。つまり、関数が参照する変数がアクティブである限り、その変数が確実に保持されるように実装されています。
+これらの例は、関数が完了を通知する方法がないため、あまり実用的ではありません。そのためには、チャネルが必要です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップと同様に、チャネルはmakeで割り当てられ、その結果の値は基になるデータ構造への参照として機能します。オプションの整数パラメータが指定された場合、チャネルのバッファサイズが設定されます。デフォルトは0で、バッファなしまたは同期チャネルです。
+①
+バッファなしチャネルは、通信（値の交換）と同期（2つの計算（goroutine）が既知の状態であることを保証する）を組み合わせます。
+チャネルを使った便利なイディオムはたくさんあります。ここでは、その1つを紹介します。前のセクションでは、バックグラウンドでソートを実行しました。チャネルを使用すると、起動したgoroutineはソートが完了するまで待機できます。
+②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信側は、受信するデータがあるまで常にブロックします。チャネルがバッファリングされていない場合、送信側は受信側が値を受信するまでブロックします。チャネルがバッファリングされている場合、送信側は値がバッファにコピーされるまでブロックします。バッファがいっぱいの場合は、受信側が値を取得するまで待機することになります。
+バッファリングされたチャネルは、例えばスループットを制限するためにセマフォのように使用できます。この例では、受信したリクエストはhandleに渡され、handleはチャネルに値を送信し、リクエストを処理します。その後、チャネルから値を受信し、次のコンシューマのために「セマフォ」を準備します。チャネルバッファの容量によって、処理する同時呼び出し数が制限されます。
+③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxOutstanding ハンドラがプロセスを実行中になると、既存のハンドラのいずれかが終了してバッファから受信するまで、それ以上のハンドラは、いっぱいになったチャネルバッファへの送信をブロックします。
+しかし、この設計には問題があります。Serve は、MaxOutstanding ハンドラの数だけしか実行できないにもかかわらず、リクエストごとに新しい goroutine を作成します。その結果、リクエストがあまりにも速く到着すると、プログラムは無制限にリソースを消費する可能性があります。この欠陥に対処するには、Serve を変更して goroutine の作成を制限します。
+④
+(Go バージョン 1.22 より前のバージョンでは、このコードにバグがあります。ループ変数がすべての goroutine で共有されます。詳細は Go wiki を参照してください。)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リソースを効果的に管理するもう一つの方法は、リクエストチャネルから読み込みを行う一定数のハンドルゴルーチンを起動することです。ゴルーチンの数によって、プロセスへの同時呼び出し回数が制限されます。このServe関数は、終了を指示するチャネルも受け入れます。ゴルーチンを起動した後、そのチャネルからの受信をブロックします。
+⑤
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go の最も重要な特性の一つは、チャネルが他の値と同様に割り当てや受け渡しが可能なファーストクラスの値であることです。この特性の一般的な用途は、安全で並列な多重分離を実装することです。
+前のセクションの例では、handle はリクエストの理想的なハンドラでしたが、それが処理する型を定義していませんでした。その型に応答用のチャネルが含まれている場合、各クライアントは応答への独自のパスを提供できます。以下は Request 型の概略的な定義です。
+①
+クライアントは、関数とその引数、そして応答を受け取るためのリクエストオブジェクト内のチャネルを提供します。
+②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サーバー側では、ハンドラー関数のみが変更対象となります。
+③
+実現するには明らかに多くの作業が必要ですが、このコードはレート制限付きの並列ノンブロッキングRPCシステムのフレームワークであり、ミューテックスは存在しません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらのアイデアのもう一つの応用は、複数のCPUコアにまたがる計算の並列化です。計算を独立して実行できる個別の部分に分割できる場合、各部分が完了したときに通知するチャネルを使用して並列化できます。
+例えば、要素のベクトルに対して高負荷な演算を実行する必要があり、各要素に対する演算の値が以下の理想的な例のように独立しているとします。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather than create a constant value for numCPU, we can ask the runtime what value is appropriate. The function runtime.NumCPU returns the number of hardware CPU cores in the machine, so we could write
+③
+There is also a function runtime.GOMAXPROCS, which reports (or sets) the user-specified number of cores that a Go program can have running simultaneously. It defaults to the value of runtime.NumCPU but can be overridden by setting the similarly named shell environment variable or by calling the function with a positive number. Calling it with zero just queries the value. Therefore if we want to honor the user's resource request, we should write
+④
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numCPUの定数を作成する代わりに、ランタイムに適切な値を問い合わせることができます。関数runtime.NumCPUはマシン上のハードウェアCPUコアの数を返すので、次のように記述できます。
+③
+また、関数runtime.GOMAXPROCSは、Goプログラムが同時に実行できるコアの数（ユーザー指定）を報告（または設定）します。この関数のデフォルトはruntime.NumCPUの値ですが、同様の名前のシェル環境変数を設定するか、正の数を指定して関数を呼び出すことでオーバーライドできます。0を指定して呼び出すと、値が照会されるだけです。したがって、ユーザーのリソース要求を尊重したい場合は、次のように記述する必要があります。
+④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+const numCPU = 4 // number of CPU cores
+func (v Vector) DoAll(u Vector) {
+    c := make(chan int, numCPU)  // Buffering optional but sensible.
+    for i := 0; i &lt; numCPU; i++ {
+        go v.DoSome(i*len(v)/numCPU, (i+1)*len(v)/numCPU, u, c)
+    }
+    // Drain the channel.
+    for i := 0; i &lt; numCPU; i++ {
+        &lt;-c    // wait for one task to complete
+    }
+    // All done.
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③
+var numCPU = runtime.NumCPU()
+④
+var numCPU = runtime.GOMAXPROCS(0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We launch the pieces independently in a loop, one per CPU. They can complete in any order but it doesn't matter; we just count the completion signals by draining the channel after launching all the goroutines.
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Be sure not to confuse the ideas of concurrency—structuring a program as independently executing components—and parallelism—executing calculations in parallel for efficiency on multiple CPUs. Although the concurrency features of Go can make some problems easy to structure as parallel computations, Go is a concurrent language, not a parallel one, and not all parallelization problems fit Go's model. For a discussion of the distinction, see the talk cited in this blog post.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ループ内で、各CPUごとに1つずつ、各要素を独立して起動します。各要素はどの順序で完了しても構いませんが、順序は重要ではありません。すべてのgoroutineを起動した後、チャネルをドレインすることで完了信号をカウントするだけです。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">並行性（プログラムを独立して実行されるコンポーネントとして構成すること）と並列性（複数のCPUで効率を高めるために計算を並列に実行すること）の概念を混同しないように注意してください。 Goの並行処理機能により、一部の問題を並列計算として容易に構造化できますが、Goは並行言語であり、並列言語ではありません。そのため、すべての並列化問題がGoのモデルに当てはまるわけではありません。この違いについては、このブログ記事で引用されている講演をご覧ください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並行プログラミングのツールは、非並行的なアイデアの表現を容易にします。RPCパッケージから抽象化された例を以下に示します。クライアント側のゴルーチンは、何らかのソース（おそらくネットワーク）からデータを受信するためにループ処理を実行します。バッファの割り当てと解放を回避するため、空きリストを保持し、バッファ付きチャネルを使用してそのリストを表します。チャネルが空の場合は、新しいバッファが割り当てられます。メッセージバッファの準備が整うと、serverChan を通じてサーバーに送信されます。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サーバーループはクライアントからの各メッセージを受信し、処理して、バッファをフリーリストに返します。
+②
+クライアントはfreeListからバッファを取得しようとします。利用可能なバッファがない場合は、新しいバッファを割り当てます。サーバーがfreeListに送信すると、リストがいっぱいでない限り、バッファはフリーリストに戻されます。リストがいっぱいの場合は、バッファは破棄され、ガベージコレクタによって回収されます。（select文のdefault句は、他のケースが準備できていない場合に実行されるため、select文はブロックされません。）この実装は、バッファリングされたチャネルとガベージコレクタによる記録管理を利用して、わずか数行でリーキーバケットのフリーリストを構築します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Library routines must often return some sort of error indication to the caller. As mentioned earlier, Go's multivalue return makes it easy to return a detailed error description alongside the normal return value. It is good style to use this feature to provide detailed error information. For example, as we'll see, os.Open doesn't just return a nil pointer on failure, it also returns an error value that describes what went wrong.
+By convention, errors have type error, a simple built-in interface.
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A library writer is free to implement this interface with a richer model under the covers, making it possible not only to see the error but also to provide some context. As mentioned, alongside the usual *os.File return value, os.Open also returns an error value. If the file is opened successfully, the error will be nil, but when there is a problem, it will hold an os.PathError:
+②
+PathError's Error generates a string like this:
+③
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ライブラリルーチンは、多くの場合、呼び出し元に何らかのエラー情報を返す必要があります。前述のように、Go の多値戻り値により、通常の戻り値に加えて詳細なエラーの説明を簡単に返すことができます。この機能を利用して詳細なエラー情報を提供するのは良い方法です。例えば、後ほど説明するように、os.Open は失敗時に nil ポインタを返すだけでなく、何が問題だったかを説明するエラー値も返します。
+慣例的に、エラーは error 型というシンプルな組み込みインターフェースを持ちます。
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ開発者は、このインターフェースをより豊富なモデルで実装することで、エラーの内容を確認するだけでなく、何らかのコンテキストを提供することもできます。前述のように、通常の *os.File 戻り値に加えて、os.Open はエラー値も返します。ファイルが正常に開かれた場合、エラーは nil になりますが、問題が発生した場合は os.PathError が保持されます。
+②
+PathError の Error は、次のような文字列を生成します。
+③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+type error interface {
+    Error() string
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+// PathError records an error and the operation and
+// file path that caused it.
+type PathError struct {
+    Op string    // "open", "unlink", etc.
+    Path string  // The associated file.
+    Err error    // Returned by the system call.
+}
+func (e *PathError) Error() string {
+    return e.Op + " " + e.Path + ": " + e.Err.Error()
+}
+③
+open /etc/passwx: no such file or directory
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Callers that care about the precise error details can use a type switch or a type assertion to look for specific errors and extract details. For PathErrors this might include examining the internal Err field for recoverable failures.
+④
+The second if statement here is another type assertion. If it fails, ok will be false, and e will be nil. If it succeeds, ok will be true, which means the error was of type *os.PathError, and then so is e, which we can examine for more information about the error.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Such an error, which includes the problematic file name, the operation, and the operating system error it triggered, is useful even if printed far from the call that caused it; it is much more informative than the plain "no such file or directory".
+When feasible, error strings should identify their origin, such as by having a prefix naming the operation or package that generated the error. For example, in package image, the string representation for a decoding error due to an unknown format is "image: unknown format".
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正確なエラーの詳細が重要な呼び出し元は、型スイッチまたは型アサーションを使用して特定のエラーを検索し、詳細を抽出できます。PathErrors の場合、これには内部 Err フィールドを調べて回復可能なエラーを検出することが含まれる場合があります。
+④
+ここでの2番目の if 文は、別の型アサーションです。失敗した場合、ok は false になり、e は nil になります。成功した場合、ok は true になり、これはエラーが *os.PathError 型であったことを意味します。e も true になり、これを調べることでエラーの詳細情報を取得できます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようなエラーは、問題のあるファイル名、操作、そしてそれが引き起こしたオペレーティングシステムのエラーを含むため、エラーの原因となった呼び出しから離れた場所に出力されたとしても有用です。単に「そのようなファイルまたはディレクトリはありません」と表示されるよりもはるかに多くの情報を提供します。
+可能であれば、エラー文字列は、エラーを生成した操作またはパッケージ名をプレフィックスとして付加するなど、その発生源を識別する必要があります。例えば、パッケージ image では、不明なフォーマットによるデコードエラーの文字列表現は「image: 不明なフォーマット」です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The usual way to report an error to a caller is to return an error as an extra return value. The canonical Read method is a well-known instance; it returns a byte count and an error. But what if the error is unrecoverable? Sometimes the program simply cannot continue.
+For this purpose, there is a built-in function panic that in effect creates a run-time error that will stop the program (but see the next section). The function takes a single argument of arbitrary type—often a string—to be printed as the program dies. It's also a way to indicate that something impossible has happened, such as exiting an infinite loop.
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is only an example but real library functions should avoid panic. If the problem can be masked or worked around, it's always better to let things continue to run rather than taking down the whole program. One possible counterexample is during initialization: if the library truly cannot set itself up, it might be reasonable to panic, so to speak.
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">呼び出し元にエラーを報告する一般的な方法は、追加の戻り値としてエラーを返すことです。標準的な Read メソッドはよく知られた例で、バイト数とエラーを返します。しかし、エラーが回復不可能な場合はどうすればよいでしょうか？プログラムが単純に処理を続行できない場合もあります。
+この目的のために、組み込み関数 panic が用意されています。これは、事実上プログラムを停止させる実行時エラーを生成します（次のセクションを参照してください）。この関数は、任意の型（多くの場合は文字列）の引数を1つ受け取り、プログラムの実行終了時に出力します。また、無限ループからの脱出など、想定外の事態が発生したことを示す手段にもなります。
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはあくまで一例ですが、実際のライブラリ関数ではパニックは避けるべきです。問題が隠蔽または回避できる場合は、プログラム全体を停止させるよりも、処理を継続させる方が常に賢明です。反例として、初期化中にパニックが発生することがあります。ライブラリが実際に自己起動できない場合、いわばパニック状態になるのが妥当と言えるでしょう。
+②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+// A toy implementation of cube root using Newton's method.
+func CubeRoot(x float64) float64 {
+    z := x/3   // Arbitrary initial value
+    for i := 0; i &lt; 1e6; i++ {
+        prevz := z
+        z -= (z*z*z-x) / (3*z*z)
+        if veryClose(z, prevz) {
+            return z
+        }
+    }
+    // A million iterations has not converged; something is wrong.
+    panic(fmt.Sprintf("CubeRoot(%g) did not converge", x))
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+var user = os.Getenv("USER")
+func init() {
+    if user == "" {
+        panic("no value for $USER")
+    }
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この回復パターンが実装されているので、do 関数（およびそれが呼び出すすべての関数）は、panic を呼び出すことで、あらゆる問題から正常に抜け出すことができます。この考え方は、複雑なソフトウェアにおけるエラー処理を簡素化するために使用できます。ローカルエラー型を指定して panic を呼び出すことで解析エラーを報告する、理想的な regexp パッケージを見てみましょう。Error、エラーメソッド、および Compile 関数の定義を以下に示します。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">With our recovery pattern in place, the do function (and anything it calls) can get out of any bad situation cleanly by calling panic. We can use that idea to simplify error handling in complex software. Let's look at an idealized version of a regexp package, which reports parsing errors by calling panic with a local error type. Here's the definition of Error, an error method, and the Compile function.
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When panic is called, including implicitly for run-time errors such as indexing a slice out of bounds or failing a type assertion, it immediately stops execution of the current function and begins unwinding the stack of the goroutine, running any deferred functions along the way. If that unwinding reaches the top of the goroutine's stack, the program dies. However, it is possible to use the built-in function recover to regain control of the goroutine and resume normal execution.
+A call to recover stops the unwinding and returns the argument passed to panic. Because the only code that runs while unwinding is inside deferred functions, recover is only useful inside deferred functions.
+One application of recover is to shut down a failing goroutine inside a server without killing the other executing goroutines.
+①
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In this example, if do(work) panics, the result will be logged and the goroutine will exit cleanly without disturbing the others. There's no need to do anything else in the deferred closure; calling recover handles the condition completely.
+Because recover always returns nil unless called directly from a deferred function, deferred code can call library routines that themselves use panic and recover without failing. As an example, the deferred function in safelyDo might call a logging function before calling recover, and that logging code would run unaffected by the panicking state.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">doParse がパニック状態になった場合、リカバリブロックは戻り値を nil に設定します。遅延関数は名前付き戻り値を変更できるからです。次に、err への代入において、ローカル型 Error であることをアサートすることで、問題がパースエラーであったかどうかを確認します。そうでない場合、型アサーションは失敗し、実行時エラーが発生します。このエラーは、何も中断されなかったかのようにスタックの巻き戻しを続行します。このチェックにより、インデックスが範囲外になるなど、予期せぬ事態が発生した場合、パースエラーを処理するために panic と recover を使用しているにもかかわらず、コードは失敗します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's finish with a complete Go program, a web server. This one is actually a kind of web re-server. Google provides a service at chart.apis.google.com that does automatic formatting of data into charts and graphs. It's hard to use interactively, though, because you need to put the data into the URL as a query. The program here provides a nicer interface to one form of data: given a short piece of text, it calls on the chart server to produce a QR code, a matrix of boxes that encode the text. That image can be grabbed with your cell phone's camera and interpreted as, for instance, a URL, saving you typing the URL into the phone's tiny keyboard.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最後に、Go言語で書かれた完全なプログラム、Webサーバーを紹介しましょう。これは実際にはWebサーバーの一種です。Googleはchart.apis.google.comというサービスを提供しており、データを自動的にチャートやグラフに整形します。しかし、データをクエリとしてURLに入力する必要があるため、インタラクティブに使うのは難しいです。ここで紹介するプログラムは、ある形式のデータに対して、より分かりやすいインターフェースを提供します。短いテキストを入力すると、チャートサーバーを呼び出してQRコード（テキストをエンコードしたボックスのマトリックス）を生成します。この画像は携帯電話のカメラで撮影し、例えばURLとして解釈できるため、携帯電話の小さなキーボードにURLを入力する手間が省けます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+package main
+import (
+    "flag"
+    "html/template"
+    "log"
+    "net/http"
+)
+var addr = flag.String("addr", ":1718", "http service address") // Q=17, R=18
+var templ = template.Must(template.New("qr").Parse(templateStr))
+func main() {
+    flag.Parse()
+    http.Handle("/", http.HandlerFunc(QR))
+    err := http.ListenAndServe(*addr, nil)
+    if err != nil {
+        log.Fatal("ListenAndServe:", err)
+    }
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">これが完全なプログラムです。説明は後ほど。
+①
+main 関数までの部分は簡単に理解できるはずです。1 つのフラグは、サーバーのデフォルトの HTTP ポートを設定します。テンプレート変数 templ で、ここで面白い処理が行われます。この変数は、サーバーがページを表示するために実行する HTML テンプレートを作成します。これについては後ほど詳しく説明します。
+main 関数はフラグを解析し、前述のメカニズムを使用して、関数 QR をサーバーのルートパスにバインドします。次に、http.ListenAndServe を呼び出してサーバーを起動します。サーバーの実行中はブロックされます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's the complete program. An explanation follows.
+① 
+The pieces up to main should be easy to follow. The one flag sets a default HTTP port for our server. The template variable templ is where the fun happens. It builds an HTML template that will be executed by the server to display the page; more about that in a moment.
+The main function parses the flags and, using the mechanism we talked about above, binds the function QR to the root path for the server. Then http.ListenAndServe is called to start the server; it blocks while the server runs.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QR は、フォームデータを含むリクエストを受け取り、s という名前のフォーム値のデータに対してテンプレートを実行します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QR just receives the request, which contains form data, and executes the template on the data in the form value named s.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">これで、数行のコードとデータ駆動型のHTMLテキストで、便利なWebサーバーが完成しました。Goは、数行のコードで多くのことを実現できるほど強力です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テンプレートパッケージ html/template は強力ですが、このプログラムはその機能の一部を紹介しているにすぎません。基本的には、templ.Execute に渡されたデータ項目（この場合はフォーム値）から派生した要素を置換することで、HTML テキストをリアルタイムで書き換えます。テンプレートテキスト (templateStr) 内では、二重中括弧で区切られた部分がテンプレートアクションを表します。 {{if .}} から {{end}} までの部分は、現在のデータ項目（.（ドット））の値が空でない場合にのみ実行されます。つまり、文字列が空の場合、テンプレートのこの部分は抑制されます。
+2つのスニペット {{.}} は、テンプレートに渡されたデータ（クエリ文字列）をWebページに表示することを示しています。HTMLテンプレートパッケージは適切なエスケープ処理を自動的に行うため、テキストは安全に表示できます。
+テンプレート文字列の残りの部分は、ページが読み込まれたときに表示されるHTMLです。説明が簡潔すぎる場合は、テンプレートパッケージのドキュメントでより詳細な説明を参照してください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">And there you have it: a useful web server in a few lines of code plus some data-driven HTML text. Go is powerful enough to make a lot happen in a few lines.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The template package html/template is powerful; this program just touches on its capabilities. In essence, it rewrites a piece of HTML text on the fly by substituting elements derived from data items passed to templ.Execute, in this case the form value. Within the template text (templateStr), double-brace-delimited pieces denote template actions. The piece from {{if .}} to {{end}} executes only if the value of the current data item, called . (dot), is non-empty. That is, when the string is empty, this piece of the template is suppressed.
+The two snippets {{.}} say to show the data presented to the template—the query string—on the web page. The HTML template package automatically provides appropriate escaping so the text is safe to display.
+The rest of the template string is just the HTML to show when the page loads. If this is too quick an explanation, see the documentation for the template package for a more thorough discussion.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Goは、Goの観点から問題を考えて、Goなりの書き方をする。
+Goをうまく書くには、Goの特性とイディオムを理解することが重要です。
+命名、フォーマット、プログラム構築など、Goでのプログラミングにおける確立された規則を理解することも重要です。
+</t>
+    <rPh sb="7" eb="9">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go パッケージのソースコードは、コアライブラリとしてだけでなく、言語の使い方のサンプルとしても活用できます。
+問題へのアプローチ方法や実装方法について疑問がある場合は、ライブラリ内のドキュメント、コード、サンプルコードから回答、アイデア、背景情報を得ることができます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">インデントは、タブ
+行の長さは、制限なし
+</t>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「// 行コメント」を標準として使用
+トップレベルの宣言の前に改行なしで記述されたコメントは、宣言自体の「ドキュメントコメント」</t>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パッケージ外に公開するには、最初の文字を大文字にします。
+</t>
+    <rPh sb="7" eb="9">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">When a package is imported, the package name becomes an accessor for the contents. After
+①
+the importing package can talk about bytes.Buffer. It's helpful if everyone using the package can use the same name to refer to its contents, which implies that the package name should be good: short, concise, evocative. By convention, packages are given lower case, single-word names; there should be no need for underscores or mixedCaps. Err on the side of brevity, since everyone using your package will be typing that name. And don't worry about collisions a priori. The package name is only the default name for imports; it need not be unique across all source code, and in the rare case of a collision the importing package can choose a different name to use locally. In any case, confusion is rare because the file name in the import determines just which package is being used.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Another convention is that the package name is the base name of its source directory; the package in src/encoding/base64 is imported as "encoding/base64" but has name base64, not encoding_base64 and not encodingBase64.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パッケージがインポートされると、パッケージ名はその内容へのアクセサになります。
+インポートするパッケージは bytes.Buffer について言及できるようになります。パッケージを使用するすべての人が同じ名前でその内容を参照できると便利です。つまり、パッケージ名は短く、簡潔で、内容を想起させる適切な名前にする必要があります。慣例的に、パッケージには小文字で単一の単語からなる名前が付けられます。アンダースコアや大文字と小文字が混在した名前は不要です。パッケージを使用するすべての人がその名前を入力するので、簡潔さを優先してください。また、衝突については事前に心配する必要はありません。パッケージ名はインポート時のデフォルト名に過ぎず、すべてのソースコードで一意である必要はありません。万が一衝突が発生した場合でも、インポートするパッケージはローカルで使用するために別の名前を選択できます。いずれにしても、インポート時のファイル名によって使用されるパッケージが決定されるため、混乱はまれです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">もう一つの慣例として、パッケージ名はソースディレクトリのベース名になります。 src/encoding/base64 内のパッケージは "encoding/base64" としてインポートされていますが、名前は encoding_base64 でも encodingBase64 でもなく、base64 です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パッケージは、短く、簡潔で、内容を想起させる適切な、小文字で単一の単語の名前とする。
+アンダースコアや大文字と小文字が混在した名前は禁止
+パッケージ名はインポート時のデフォルト名、衝突が発生した場合、ローカルで使用するために別の名前を選択できます。
+標準パッケージのstrings、structsなどから、複数形。
+</t>
+    <rPh sb="26" eb="29">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>コンザイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="156" eb="159">
+      <t>フクスウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージ名はソースディレクトリのベース名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The importer of a package will use the name to refer to its contents, so exported names in the package can use that fact to avoid repetition. (Don't use the import . notation, which can simplify tests that must run outside the package they are testing, but should otherwise be avoided.) For instance, the buffered reader type in the bufio package is called Reader, not BufReader, because users see it as bufio.Reader, which is a clear, concise name. Moreover, because imported entities are always addressed with their package name, bufio.Reader does not conflict with io.Reader. Similarly, the function to make new instances of ring.Ring—which is the definition of a constructor in Go—would normally be called NewRing, but since Ring is the only type exported by the package, and since the package is called ring, it's called just New, which clients of the package see as ring.New. Use the package structure to help you choose good names.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Another short example is once.Do; once.Do(setup) reads well and would not be improved by writing once.DoOrWaitUntilDone(setup). Long names don't automatically make things more readable. A helpful doc comment can often be more valuable than an extra long name.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パッケージのインポートする側は、その内容を参照するために名前を使用するため、パッケージで公開された名前は、その事実を利用して重複を避けることができます。(import. 記法は使用しないでください。この記法は、テスト対象のパッケージ外で実行する必要があるテストを簡素化できますが、それ以外の場合は避けるべきです。) たとえば、bufio パッケージのバッファ付きリーダー型は、BufReader ではなく Reader と呼ばれます。これは、ユーザーが bufio.Reader として認識し、簡潔でわかりやすい名前だからです。さらに、インポートされたエンティティは常にパッケージ名で参照されるため、bufio.Reader は io.Reader と競合しません。同様に、ring.Ring の新しいインスタンスを作成する関数 (Go のコンストラクタの定義) は通常 NewRing と呼ばれますが、Ring はパッケージによってエクスポートされる唯一の型であり、パッケージ名が ring であるため、単に New と呼ばれ、パッケージのクライアントからは ring.New として認識されます。パッケージ構造を参考に、適切な名前を選択してください。
+</t>
+    <rPh sb="44" eb="46">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">もう 1 つの短い例は once.Do; です。 once.Do(setup) は読みやすく、once.DoOrWaitUntilDone(setup) と書いても改善されません。長い名前が必ずしも読みやすくなるわけではありません。役に立つドキュメンテーションコメントは、長すぎる名前よりも価値がある場合が多いです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">長すぎる名前よりも、ドキュメンテーションコメントを書く。
+</t>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">owner (小文字、エクスポートなし) というフィールドがある場合、
+getter メソッドは、Owner 
+setter メソッドは、SetOwner 
+エクスポート時に大文字の名前を使用する
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">インポートは、常にパッケージ名で参照
+インポートされたエンティティは常にパッケージ名で参照されるため、bufio.Reader は io.Reader と競合しない。
+ring.Ring の新しいインスタンスを作成する関数 (Go のコンストラクタの定義) は
+通常 NewRing とする
+ただし、ring はパッケージによって公開する型が唯一の場合、ring.New とする
+</t>
+    <rPh sb="177" eb="179">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">慣例により、単一メソッドインターフェースは、メソッド名に -er サフィックスまたは同様の修飾語を付加して行為者名詞（例: maker，actor，student）を構成します（例：Reader、Writer、Formatter、CloseNotifier など）。
+</t>
+    <rPh sb="53" eb="56">
+      <t>コウイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このような名前は数多く存在しますが、それらとそれらが表す関数名を尊重することは有益です。Read、Write、Close、Flush、String などは、標準的なシグネチャと意味を持っています。混乱を避けるため、同じシグネチャと意味を持つ場合を除き、メソッドにこれらの名前は付けないでください。逆に、既存の型のメソッドと同じ意味を持つメソッドを実装する型の場合は、同じ名前とシグネチャを使用します。つまり、文字列変換メソッドは ToString ではなく String とします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">単一メソッドインターフェースは、メソッド名に -er、または行為者名詞（例: maker，actor，student）を サフィックスとして付加する
+</t>
+    <rPh sb="70" eb="72">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Read、Write、Close、Flush、String などは、標準的なシグネチャは、同じ意味を持つ場合にのみ付与する。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">By convention, one-method interfaces are named by the method name plus an -er suffix or similar modification to construct an agent noun: Reader, Writer, Formatter, CloseNotifier etc.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There are a number of such names and it's productive to honor them and the function names they capture. Read, Write, Close, Flush, String and so on have canonical signatures and meanings. To avoid confusion, don't give your method one of those names unless it has the same signature and meaning. Conversely, if your type implements a method with the same meaning as a method on a well-known type, give it the same name and signature; call your string-converter method String not ToString.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数旦木の連結は、UpperCamel、lowerCamelを利用する。</t>
+    <rPh sb="0" eb="4">
+      <t>フクスウタンギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンケツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Like C, Go's formal grammar uses semicolons to terminate statements, but unlike in C, those semicolons do not appear in the source. Instead the lexer uses a simple rule to insert semicolons automatically as it scans, so the input text is mostly free of them.
+The rule is this. If the last token before a newline is an identifier (which includes words like int and float64), a basic literal such as a number or string constant, or one of the tokens
+①
+the lexer always inserts a semicolon after the token. This could be summarized as, “if the newline comes after a token that could end a statement, insert a semicolon”.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A semicolon can also be omitted immediately before a closing brace, so a statement such as
+②
+needs no semicolons. Idiomatic Go programs have semicolons only in places such as for loop clauses, to separate the initializer, condition, and continuation elements. They are also necessary to separate multiple statements on a line, should you write code that way.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C言語と同様に、Go言語の形式文法では文の終了にセミコロンを使用しますが、C言語とは異なり、これらのセミコロンはソースコードには現れません。代わりに、レキサーは単純なルールに従ってスキャン時に自動的にセミコロンを挿入するため、入力テキストにはほとんどセミコロンが含まれません。
+ルールは次のとおりです。改行前の最後のトークンが識別子（intやfloat64などの単語を含む）、数値や文字列定数などの基本リテラル、または以下のいずれかのトークンである場合、レキサーは常にトークンの後にセミコロンを挿入します。
+①
+これは、「改行が文を終了させる可能性のあるトークンの後に来る場合は、セミコロンを挿入する」と要約できます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">セミコロンは閉じ括弧の直前でも省略できるため、次のような文にはセミコロンは不要です。
+②
+慣用的なGo言語プログラムでは、forループ節など、初期化子、条件、継続要素を区切る場合にのみセミコロンを使用します。また、コードをそのように記述する場合、1 行に複数のステートメントを区切るためにも必要です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+break continue fallthrough return ++ -- ) }
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+    go func() { for { dst &lt;- &lt;-src } }()
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文末セミコロンは、自動的に挿入されるので、基本的に、不要。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ブンマツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forループ節など、初期化子、条件、継続要素を区切る場合にのみセミコロンを使用します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">制御構造（if、for、switch、select）の開き中括弧を次の行にしない。
+もし、開き中括弧を次の行に置くと、中括弧の前にセミコロンが挿入され、望ましくない結果が生じる可能性があります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">③
+if i &lt; f() {
+    g()
+}
+④
+if i &lt; f()  // wrong!
+{           // wrong!
+    g()
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セミコロンの挿入規則により、制御構造（if、for、switch、select）の開き中括弧を次の行に置くことはできません。もし置くと、中括弧の前にセミコロンが挿入され、望ましくない結果が生じる可能性があります。次のように記述してください。
+③
+このように記述しないでください。
+④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ループは、for文のみ
+if文とswitch文は、for文と同様にオプションの初期化文が利用可能
+括弧は存在せず、本体は常に中括弧で区切る必要があります。
+</t>
+    <rPh sb="45" eb="49">
+      <t>リヨウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if 文が次の文に流れ込まない場合、つまり本体が break、continue、goto、または return で終わる場合、 else 文は記載しない。</t>
+    <rPh sb="71" eb="73">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In Go a simple if looks like this:
+①
+Mandatory braces encourage writing simple if statements on multiple lines. It's good style to do so anyway, especially when the body contains a control statement such as a return or break.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Since if and switch accept an initialization statement, it's common to see one used to set up a local variable.
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go では、単純な if 文は次のようになります。
+①
+必須の中括弧は、単純な if 文を複数行に記述することを推奨します。特に本体に return や break などの制御文が含まれている場合は、複数行に記述するのが良いスタイルです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if と switch は初期化文を受け入れるため、ローカル変数を設定するために初期化文が使用されることはよくあります。
+②
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+if x &gt; 0 {
+    return y
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②
+if err := file.Chmod(0664); err != nil {
+    log.Print(err)
+    return err
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中括弧は常に嘉指、単純な if 文でも複数行で記述する。
+</t>
+    <rPh sb="4" eb="5">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if と switch は初期化文を受け入れるため、ローカル変数を設定するために初期化文が使用される
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+f, err := os.Open(name)
+②
+d, err := f.Stat()
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:= 宣言は、
+既存の v の宣言と同じスコープ内にあれば、再度、代入可能
+v が既に外側のスコープで宣言されている場合、宣言によって新しい変数が作成し代入</t>
+    <rPh sb="30" eb="32">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ダイニュウカノウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">繰り返しは、for文のみ、ケースにより使い分ける
+// Like a C for
+for init; condition; post { }
+// Like a C while
+for condition { }
+// Like a C for(;;)
+for { }
+</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Goにはカンマ演算子がなく、++と--は式ではなく文です。
+つまり、for文で複数の変数を利用する場合は、並列代入を使用する必要があります
+　→1つの変数なら、++、--でよい。
+　→2つの変数なら、i, j = i+1, j-1とする
+</t>
+    <rPh sb="46" eb="48">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for文の中のswitchの中で、ループを終わらせるには、
+ループにラベルを付け、そのラベルまで「break」することで実現
+continue 文はオプションのラベルも受け入れますが、これはループにのみ適用されます。</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①
+var t interface{}
+t = functionOfSomeType()
+switch t := t.(type) {
+default:
+    fmt.Printf("unexpected type %T\n", t)     // %T prints whatever type t has
+case bool:
+    fmt.Printf("boolean %t\n", t)             // t has type bool
+case int:
+    fmt.Printf("integer %d\n", t)             // t has type int
+case *bool:
+    fmt.Printf("pointer to boolean %t\n", *t) // t has type *bool
+case *int:
+    fmt.Printf("pointer to integer %d\n", *t) // t has type *int
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switchは、インターフェース変数の動的な型を調べるためにも使用できます。このような型switchは、括弧内にキーワード type を含む型アサーションの構文を使用します。switchが式の中で変数を宣言する場合、各節でその変数は対応する型を持ちます。このような場合、名前を再利用することも慣用的です。つまり、同じ名前でそれぞれ異なる型の新しい変数を宣言することになります。
+①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">チェック対象の変数をvalueとすると、
+型switchでは、「switch value.(type)」とすることで、値の型で分岐できる
+型switchで値の型で分岐し、返還後の型を利用するには、「switch value := value.(type)」とすることで、各caseでvalueを変換後の型として利用できる。
+なお、このとき、同じ変数を利用することを推奨。
+</t>
+    <rPh sb="59" eb="60">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>ヘンカンゴ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数やメソッドが複数の値を返せる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値には、名前を付けるとことができ、関数の実行開始時にそれぞれの型のゼロ値に初期化されます。
+引数なしの return 文を実行する場合、結果パラメータの現在の値を戻り値として使用する
+名前は必須ではありませんが、名前はドキュメントとなるので、推奨</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new(T)は、*T型の値を返す
+p := new(SyncedBuffer)  // type *SyncedBuffer
+var v SyncedBuffer      // type  SyncedBuffer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">クラスの初期化がゼロ値だけでは不十分な場合、初期化コンストラクタとして、「NewT(引数) *T」の関数を定義する。
+</t>
+    <rPh sb="4" eb="7">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">複合リテラル「例．File{fd, name, nil, 0}」は、フィールドは順番に配置され、すべて存在する必要があります。
+複合リテラル「例．File{fd: fd, name: name}」は、要素を明示的に「フィールド:値」のペアとしてラベル付けすることで、初期化子は任意の順序で出現でき、存在しないものはそれぞれゼロ値として残ります。
+</t>
+    <rPh sb="7" eb="8">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">複合リテラルは、配列、スライス、マップに対しても作成でき、フィールドラベルは必要に応じてインデックスまたはマップキーになります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://go.dev/tour/basics/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://go.dev/tour/welcome/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://go.dev/tour/flowcontrol/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://go.dev/tour/moretypes/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://go.dev/tour/methods/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://go.dev/tour/generics/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://go.dev/tour/concurrency/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://go.dev/tour/list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">値を気にせずにマップ内に存在するかどうかを確認するには、通常の変数の代わりにブランク識別子 (_) を使用します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップに存在しないキーでマップ値を取得しようとすると、マップ内のエントリの型に応じた0が返されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠落したエントリとゼロ値を区別する必要がある場合、以下の「カンマok」を利用する。
+if seconds, ok := timeZone[tz]; ok {
+    return seconds
+}</t>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マップの場合、Printf などの関数は出力をキーで辞書式にソートします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Printf, Sprintf, and Fprintf
+の format オプション
+https://pkg.go.dev/fmt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type Stringer interface {
+    String() string
+}
+Stringer は、その値の「ネイティブ」フォーマットを定義する String メソッドを持つ任意の値によって実装されます。String メソッドは、文字列を受け入れる任意のフォーマット、またはPrintなどのフォーマットされていないプリンタにオペランドとして渡された値を出力するために使用されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String メソッドは Sprintf を呼び出すことができます。これは、print ルーチンが完全に再入可能であり、このようにラップできるためです。ただし、このアプローチには理解しておくべき重要な点が1つあります。それは、String メソッドを Sprintf 呼び出しによって無限に再帰するような方法で構築してはいけないということです。これは、Sprintf 呼び出しがレシーバーを文字列として直接印刷しようとし、その結果 Sprintf メソッドが再度呼び出される場合に発生する可能性があります。この例が示すように、これはよくある間違いです。
+⑫
+これも簡単に修正できます。引数を、メソッドを持たない基本の文字列型に変換してください。
+⑬
+初期化のセクションでは、この再帰を回避する別の手法について説明します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String メソッドを Sprintf 呼び出しによって無限に再帰しないようにする
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">... パラメータは特定の型にすることもできます。例えば、整数リストは ...int です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>append は、スライスの末尾に要素を追加し、結果を返します。
+基になる配列が変更される可能性があるため、結果を返す必要があります。
+x := []int{1,2,3}
+x = append(x, 4, 5, 6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数内でローカル変数として定義されている場合でも、コンパイル時に生成され、数値、文字（ルーン）、文字列、またはブール値のみを使用できます。
+Go言語では、列挙型定数はiota列挙子を用いて作成されます。iotaは式の一部に使用でき、式は暗黙的に繰り返すことができるため、複雑な値のセットを簡単に構築できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String などのメソッドを任意のユーザー定義型にアタッチすることで、任意の値を自動的にフォーマットして出力できるようになります。
+スカラー型にも役立ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">変数は定数と同様に初期化できますが、初期化子は実行時に計算される一般的な式にすることができます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ソースファイルは、必要な状態を設定するための引数を取らない  init 関数を独自に定義できます。（実際には、各ファイルは複数の init 関数を持つことができます。）そして、パッケージ内のすべての変数宣言の初期化子が評価された後に init が呼び出され、それらの初期化子はインポートされたすべてのパッケージの初期化が完了した後にのみ評価されます。
+宣言として表現できない初期化に加えて、init 関数の一般的な用途は、実際の実行が始まる前にプログラム状態の正しさを検証または修復することです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終引数に ...interface{} 型を使用して、任意の数の（任意の型の）パラメータを指定できます。
+可変長引数へ渡す忌避数は、変数名 v の後に ... を記述することで、v を引数リストとして扱うように指示します。そうしないと、v は単一のスライス引数として渡されます。</t>
+    <rPh sb="61" eb="62">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>キヒスウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type ByteSlice []byte
+のように、メソッドは任意の名前付き型（ポインタとインターフェースを除く）に対して定義できます。レシーバは構造体である必要はありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値メソッドはポインタと値の両方で呼び出すことができる
+ポインタメソッドはポインタでのみ呼び出すことができる
+ポインタメソッドはレシーバーを変更できる
+ポインタメソッドを値に対して呼び出すと、メソッドは値のコピーを受け取るため、変更内容は破棄されてしまう
+値がアドレス指定可能な場合、アドレス演算子を自動的に挿入することで、値に対してポインタメソッドを呼び出すことが可能</t>
+    <rPh sb="188" eb="190">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sort.Interface
+https://pkg.go.dev/sort#Interface
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「カンマ、OK」イディオムを使用して、値がtypeNameかどうかを安全にテストします。
+str, ok := value.(typeName)
+型アサーションが失敗した場合、値はゼロになります
+文字列型の場合、値はゼロ、つまり空文字列になります
+</t>
+    <rPh sb="100" eb="103">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文字列の場合のrangeのforは、ポジション、rune（文字型）を受け取ります。
+</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">型アサーションは、以下の構文で明示的な型の値に変換します。
+str := value.(typeName)
+</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">型がインターフェースを実装するためだけに存在し、そのインターフェースを超えてエクスポートされるメソッドを持たない場合、型自体をエクスポートする必要はありません。
+インターフェースのみをエクスポートすることで、その値がインターフェースで記述されている以上の動作を持たないことが明確になります。
+このような場合、コンストラクタは実装型ではなくインターフェース値を返す必要があります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポインタとインターフェース以外の型に対してメソッドを定義できるため、
+以下のように、関数に対してメソッドを書くことができます。
+type HandlerFunc func(ResponseWriter, *Request)
+func (f HandlerFunc) ServeHTTP(w ResponseWriter, req *Request) {
+    f(w, req)
+}</t>
+    <rPh sb="35" eb="37">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ブランク識別子は、任意の型の任意の値を代入または宣言し、その値はそのまま破棄できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">range ループやマップのfor の文脈で、ブランク識別子について何度か触れてきました。ブランク識別子には、任意の型の任意の値を代入または宣言することができ、その値はそのまま破棄されます。これは、Unixの/dev/nullファイルへの書き込みに少し似ています。つまり、書き込み専用の値を表すもので、変数は必要だが実際の値は関係ない場合にプレースホルダとして使用されます。ブランク識別子には、これまで見てきた以外にも様々な用途があります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランク識別子で、エラーを無視するためにエラー値を破棄するコードを見かけることがありますが、エラーの戻り値は必ず確認してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明示的な使用法を示さずに、副作用のためだけにパッケージをインポートすることが有用な場合もあります。
+import _ "net/http/pprof"
+明示的に、このパッケージの部品を利用しないが、
+init 関数の実行中に、デバッグ情報を提供する HTTP ハンドラーを登録します。
+この形式のインポートは、パッケージが副作用のためにインポートされていることを明確に示しています。</t>
+    <rPh sb="78" eb="81">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">稀なケースであるが、
+型を実装するパッケージ内で、その型が実際にインターフェースを満たしていることを保証する必要があり、コード内に静的な変換が既に存在しない場合にのみ、以下のようなブランク識別子の宣言で、型チェックする。
+var _ json.Marshaler = (*RawMessage)(nil)
+</t>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go は、サブクラス化のための典型的な型駆動型の記法は提供していませんが、構造体やインターフェース内に型を埋め込むことで、実装の一部を「借用」する機能を備えています。
+インターフェースの埋め込みは非常に簡単です。io.Reader インターフェースと io.Writer インターフェースについては既に説明しました。以下にそれらの定義を示します。
+①
+io パッケージは、複数のメソッドを実装できるオブジェクトを指定するためのインターフェースもいくつかエクスポートしています。例えば、Read と Write の両方を含むインターフェースである io.ReadWriter があります。2 つのメソッドを明示的に列挙することで io.ReadWriter を指定することもできますが、次のように 2 つのインターフェースを埋め込んで新しいインターフェースを作成する方が簡単で分かりやすいでしょう。
+②
+これはまさにその名の通りです。ReadWriter は Reader と Writer が行うことを実行できます。つまり、埋め込まれたインターフェースの共用体です。インターフェース内に埋め込むことができるのはインターフェースだけです。
+</t>
+    <rPh sb="24" eb="26">
+      <t>キホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体やインターフェース内に型を埋め込むことで、実装の一部を「借用（borrow）」する機能を備えています。
+type ReadWriter interface {
+    Reader
+    Writer
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type ReadWriter struct {
+    *Reader  // *bufio.Reader
+    *Writer  // *bufio.Writer
+}
+で定義すると
+func (rw *ReadWriter) Read(p []byte) (n int, err error)
+などは、明示的な実装を市内でも利用可能になる。
+</t>
+    <rPh sb="89" eb="91">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="156" eb="159">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>シナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">同じ基本的な考え方は構造体にも当てはまりますが、より広範な意味合いを持ちます。bufio パッケージには bufio.Reader と bufio.Writer という2つの構造体型があり、それぞれが io パッケージの類似のインターフェースを実装しています。また、bufio はバッファ付きリーダー/ライターも実装しています。これは、埋め込みを用いてリーダーとライターを1つの構造体に統合することで実現されています。つまり、構造体内の型は列挙しますが、フィールド名は付与しません。
+③
+埋め込まれた要素は構造体へのポインタであり、使用する前に有効な構造体を指すように初期化する必要があります。ReadWriter 構造体は次のように記述できます。
+④
+ただし、フィールドのメソッドを昇格させ、io インターフェースを満たすためには、次のような転送メソッドも提供する必要があります。
+⑤
+構造体を直接埋め込むことで、この管理を回避できます。埋め込まれた型のメソッドは自動的に提供されるため、bufio.ReadWriter は bufio.Reader と bufio.Writer のメソッドだけでなく、io.Reader、io.Writer、io.ReadWriter の3つのインターフェースすべてを満たします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">埋め込みとサブクラス化には重要な違いがあります。型を埋め込むと、その型のメソッドは外側の型のメソッドになりますが、メソッドが呼び出される際には、メソッドのレシーバーは外側の型ではなく、内側の型になります。この例では、bufio.ReadWriter の Read メソッドが呼び出されると、上で説明した転送メソッドと全く同じ効果が得られます。レシーバーは ReadWriter のリーダーフィールドであり、ReadWriter 自体ではありません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">埋め込みは単純な利便性を提供する場合もあります。この例では、埋め込みフィールドと通常の名前付きフィールドを並べて表示しています。
+⑥
+これで、Job 型に Print、Printf、Println などの *log.Logger メソッドが追加されました。もちろん、Logger にフィールド名を付けることもできますが、必ずしもそうする必要はありません。これで初期化が完了したので、Job にログ出力できるようになりました。
+⑦
+Logger は Job 構造体の通常のフィールドなので、Job のコンストラクタ内で通常の方法で初期化できます。例:
+⑧
+または複合リテラルを使用して初期化することもできます。
+⑨
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑥
+type Job struct {
+    Command string
+    *log.Logger
+}
+⑦
+job.Println("starting now...")
+⑧
+func NewJob(command string, logger *log.Logger) *Job {
+    return &amp;Job{command, logger}
+}
+⑨
+job := &amp;Job{command, log.New(os.Stderr, "Job: ", log.Ldate)}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There's an important way in which embedding differs from subclassing. When we embed a type, the methods of that type become methods of the outer type, but when they are invoked the receiver of the method is the inner type, not the outer one. In our example, when the Read method of a bufio.ReadWriter is invoked, it has exactly the same effect as the forwarding method written out above; the receiver is the reader field of the ReadWriter, not the ReadWriter itself.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedding can also be a simple convenience. This example shows an embedded field alongside a regular, named field.
+⑥
+The Job type now has the Print, Printf, Println and other methods of *log.Logger. We could have given the Logger a field name, of course, but it's not necessary to do so. And now, once initialized, we can log to the Job:
+⑦
+The Logger is a regular field of the Job struct, so we can initialize it in the usual way inside the constructor for Job, like this,
+⑧
+or with a composite literal,
+⑨
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If we need to refer to an embedded field directly, the type name of the field, ignoring the package qualifier, serves as a field name, as it did in the Read method of our ReadWriter struct. Here, if we needed to access the *log.Logger of a Job variable job, we would write job.Logger, which would be useful if we wanted to refine the methods of Logger.
+⑩
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedding types introduces the problem of name conflicts but the rules to resolve them are simple. First, a field or method X hides any other item X in a more deeply nested part of the type. If log.Logger contained a field or method called Command, the Command field of Job would dominate it.
+Second, if the same name appears at the same nesting level, it is usually an error; it would be erroneous to embed log.Logger if the Job struct contained another field or method called Logger. However, if the duplicate name is never mentioned in the program outside the type definition, it is OK. This qualification provides some protection against changes made to types embedded from outside; there is no problem if a field is added that conflicts with another field in another subtype if neither field is ever used.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">埋め込みフィールドを直接参照する必要がある場合、パッケージ修飾子を無視したフィールドの型名がフィールド名として機能します。これは、ReadWriter 構造体の Read メソッドでも同様です。ここで、Job 変数 job の *log.Logger にアクセスする必要がある場合、job.Logger と記述します。これは、Logger のメソッドを改良したい場合に便利です。
+⑩
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型を埋め込むと名前の競合が発生しますが、解決方法は単純です。まず、フィールドまたはメソッド X は、型のより深くネストされた部分にある他の項目 X を隠蔽します。log.Logger に Command というフィールドまたはメソッドが含まれている場合、Job の Command フィールドがそれを支配します。
+次に、同じ名前が同じネストレベルに出現する場合、通常はエラーになります。Job 構造体に Logger という別のフィールドまたはメソッドが含まれている場合、log.Logger を埋め込むのは誤りです。ただし、重複した名前が型定義以外のプログラムで一切言及されていない場合は問題ありません。この修飾子により、外部から埋め込まれた型への変更に対してある程度の保護が提供されます。どちらのフィールドも使用されていない場合、別のサブタイプの別のフィールドと競合するフィールドが追加されても問題はありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">埋め込みフィールドを直接参照する必要がある場合、パッケージ修飾子を無視したフィールドの型名がフィールド名として機能します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type Job struct {
+    Command string
+    *log.Logger
+}
+の場合
+フィールドまたはメソッド X は、型のより深くネストされた部分にある他の項目 X を隠蔽します。log.Logger に Command というフィールドまたはメソッドが含まれている場合、Job の Command フィールドがそれを支配します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">並行プログラミングは広大なトピックであり、ここではGo特有のハイライトをいくつか紹介するにとどめます。
+多くの環境における並行プログラミングは、共有変数への正しいアクセスを実装するために必要な微妙さによって困難になります。Goでは、共有値はチャネルを介して受け渡され、実際には別々の実行スレッド間で積極的に共有されることはありません。ある時点で1つのgoroutineだけが値にアクセスできます。設計上、データ競合は発生しません。この考え方を推奨するために、私たちはそれをスローガンにまとめました。
+メモリを共有して通信するのではなく、通信によってメモリを共有する。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このアプローチは行き過ぎになる可能性があります。参照カウントは、例えば整数変数をミューテックスで囲むことで最も効果的に実現できるかもしれません。しかし、高レベルのアプローチとして、チャネルを使用してアクセスを制御することで、明確で正しいプログラムを作成しやすくなります。
+このモデルを考える一つの方法は、1つのCPUで実行される典型的なシングルスレッドプログラムを考えることです。同期プリミティブは必要ありません。次に、同様のインスタンスをもう一つ実行してみましょう。こちらも同期は必要ありません。次に、これら2つのインスタンスが通信できるようにします。通信が同期装置であるならば、他の同期は必要ありません。例えば、Unixパイプラインはこのモデルに完全に適合します。Go言語の並行性へのアプローチは、HoareのCommunicating Sequential Processes（CSP）に由来しますが、Unixパイプの型安全な一般化とも見ることができます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Concurrent programming is a large topic and there is space only for some Go-specific highlights here.
+Concurrent programming in many environments is made difficult by the subtleties required to implement correct access to shared variables. Go encourages a different approach in which shared values are passed around on channels and, in fact, never actively shared by separate threads of execution. Only one goroutine has access to the value at any given time. Data races cannot occur, by design. To encourage this way of thinking we have reduced it to a slogan:
+Do not communicate by sharing memory; instead, share memory by communicating.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This approach can be taken too far. Reference counts may be best done by putting a mutex around an integer variable, for instance. But as a high-level approach, using channels to control access makes it easier to write clear, correct programs.
+One way to think about this model is to consider a typical single-threaded program running on one CPU. It has no need for synchronization primitives. Now run another such instance; it too needs no synchronization. Now let those two communicate; if the communication is the synchronizer, there's still no need for other synchronization. Unix pipelines, for example, fit this model perfectly. Although Go's approach to concurrency originates in Hoare's Communicating Sequential Processes (CSP), it can also be seen as a type-safe generalization of Unix pipes.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Goでは、共有値はチャネルを介して受け渡され、実際には別々の実行スレッド間で積極的に共有されることはありません。ある時点で1つのgoroutineだけが値にアクセスできます。設計上、データ競合は発生しません。
+メモリを共有して通信するのではなく、通信によってメモリを共有する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">goroutine のモデルは、同じアドレス空間で他の goroutine と並行して実行される関数です。
+関数またはメソッド呼び出しの前に go キーワードを付けると、その呼び出しが新しい goroutine で実行されます。呼び出しが完了すると、goroutine は何もせずに終了します
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">関数が参照する変数がアクティブである限り、その変数が確実に保持されるように実装されています。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">受信側は、受信するデータがあるまで常にブロックします。
+チャネルがバッファリングされていない場合、送信側は受信側が値を受信するまでブロックします。チャネルがバッファリングされている場合、送信側は値がバッファにコピーされるまでブロックします。
+バッファがいっぱいの場合は、受信側が値を取得するまで待機することになります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リソースを効果的に管理するもう一つの方法は、リクエストチャネルから読み込みを行う一定数のハンドルゴルーチンを起動することです。ゴルーチンの数によって、プロセスへの同時呼び出し回数が制限されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">関数runtime.NumCPUはマシン上のハードウェアCPUコアの数を返す
+関数runtime.GOMAXPROCSは、Goプログラムが同時に実行できるコアの数（ユーザー指定）を報告（または設定）します。この関数のデフォルトはruntime.NumCPUの値ですが、同様の名前のシェル環境変数を設定するか、正の数を指定して関数を呼び出すことでオーバーライドできます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select文のdefault句は、他のケースが準備できていない場合に実行されるため、select文はブロックされません。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Go の多値戻り値により、通常の戻り値に加えて詳細なエラーの説明を返す
+慣例的に、エラーは error 型というシンプルな組み込みインターフェースを持ちます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">errorインターフェースをより豊富なモデルで実装することで、エラーの内容を確認するだけでなく、何らかのコンテキストを提供することもできます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">エラー文字列は、エラーを生成した操作またはパッケージ名をプレフィックスとして付加するなど、その発生源を識別する必要があります。
+例えば、パッケージ image では、不明なフォーマットによるデコードエラーの文字列表現は「image: 不明なフォーマット」です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正確なエラーの詳細が重要な呼び出し元は、型スイッチまたは型アサーションを使用して特定のエラーを検索し、詳細を抽出できます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが回復不可能な場合、プログラムが単純に処理を続行できない場合のために、組み込み関数 panic が用意されています。
+この関数は、任意の型（多くの場合は文字列）の引数を1つ受け取り、プログラムの実行終了時に出力します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ関数ではパニックは避けるべきです。
+反例として、初期化中にパニックが発生することがあります。ライブラリが実際に自己起動できない場合、いわばパニック状態になるのが妥当</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recover を呼び出すと、巻き戻しが停止し、panic に渡された引数が返されます。巻き戻し中に実行されるコードは遅延関数内だけなので、recover は遅延関数内でのみ有効です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">panic が呼び出されると（スライスのインデックスが範囲外の場合や型アサーションの失敗などの実行時エラーの場合も暗黙的に呼び出される）、現在の関数の実行を直ちに停止し、goroutine のスタックの巻き戻しを開始し、その過程で遅延関数を実行します。巻き戻しが goroutine のスタックの先頭に達した場合、プログラムは終了します。ただし、組み込み関数の recover を使用することで、goroutine の制御を取り戻し、通常の実行を再開することができます。
+recover を呼び出すと、巻き戻しが停止し、panic に渡された引数が返されます。巻き戻し中に実行されるコードは遅延関数内だけなので、recover は遅延関数内でのみ有効です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recover の応用例の一つとして、サーバー内で実行中の他の goroutine を強制終了させずに、失敗した goroutine をシャットダウンすることが挙げられます。
+①
+この例では、do(work) がパニック状態になった場合、その結果がログに記録され、goroutine は他の処理に影響を与えることなく正常に終了します。deferred クロージャ内で他に何もする必要はありません。recover を呼び出すだけで条件が完全に処理されます。
+recover は、deferred 関数から直接呼び出されない限り常に nil を返すため、deferred コードは、panic と restore を使用するライブラリルーチンを失敗することなく呼び出すことができます。例えば、safelyDo の deferred 関数は、recover を呼び出す前にログ出力関数を呼び出す場合があり、そのログ出力コードはパニック状態の影響を受けずに実行されます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> re-panic イディオムは、実際にエラーが発生した場合にパニック値を変更します。ただし、クラッシュレポートには元のエラーと新しいエラーの両方が表示されるため、問題の根本原因は依然として確認できます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">エラー処理が実装されていれば、error メソッド（型にバインドされたメソッドなので、組み込みのエラー型と同じ名前でも問題なく、むしろ自然なものです）を使うことで、手動でパーススタックをアンワインドする手間をかけずに、簡単にパースエラーを報告できます。
+③
+このパターンは便利ですが、パッケージ内でのみ使用する必要があります。Parse は内部のパニック呼び出しをエラー値に変換し、クライアントにパニックを公開しません。これは従うべき良いルールです。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ところで、この re-panic イディオムは、実際にエラーが発生した場合にパニック値を変更します。ただし、クラッシュレポートには元のエラーと新しいエラーの両方が表示されるため、問題の根本原因は依然として確認できます。したがって、この単純な re-panic アプローチで通常は十分です（結局のところクラッシュなのですが）。ただし、元の値だけを表示したい場合は、予期しない問題をフィルタリングし、元のエラーで re-panic するようにコードを少し追加することができます。これは読者の課題として残しておきます。
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2999,7 +4959,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3012,6 +4972,28 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3032,10 +5014,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3043,12 +5026,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3323,10 +5313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H113"/>
+  <dimension ref="B2:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E131" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3352,13 +5342,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>269</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="158.65">
@@ -3369,13 +5359,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>270</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="334.9">
@@ -3389,13 +5379,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="282">
@@ -3406,13 +5396,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>274</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="176.25">
@@ -3426,13 +5416,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>277</v>
+        <v>202</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="70.5">
@@ -3446,1288 +5436,2020 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="299.64999999999998">
+        <v>203</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="229.15">
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>279</v>
+        <v>436</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="299.64999999999998">
-      <c r="C9" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="70.5">
+      <c r="D9" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="246.75">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="193.9">
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="88.15">
+      <c r="D11" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="193.9">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="88.15">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="193.9">
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="141">
+      <c r="D14" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="52.9">
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="52.9">
-      <c r="C12" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="246.75">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="141">
+      <c r="D17" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="193.9">
+      <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="370.15">
-      <c r="B13" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="141">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="176.25">
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="141">
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="193.9">
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="334.9">
-      <c r="D17" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="387.75">
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="70.5">
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" ht="387.75">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="123.4">
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="246.75">
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="105.75">
       <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="317.25">
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="334.9">
       <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="405.4">
+        <v>211</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="282">
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="409.5">
+        <v>475</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="246.75">
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="405.4">
+        <v>214</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="299.64999999999998">
       <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="352.5">
+      <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="264.39999999999998">
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="229.15">
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="387.75">
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="123.4">
       <c r="D28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="246.75">
+        <v>228</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="405.4">
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="409.5">
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="334.9">
+        <v>32</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="405.4">
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="409.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="299.64999999999998">
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="158.65">
+        <v>480</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="34" spans="2:8" ht="282">
       <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="317.25">
+      <c r="D35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="282">
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="409.5">
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="299.64999999999998">
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="387.75">
-      <c r="C35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="405.4">
-      <c r="C36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="370.15">
-      <c r="C37" s="1" t="s">
+      <c r="D38" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="387.75">
+      <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="370.15">
-      <c r="C38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="299.64999999999998">
-      <c r="C39" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="370.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="229.15">
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="264.39999999999998">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="211.5">
+    </row>
+    <row r="42" spans="2:8" ht="352.5">
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="317.25">
-      <c r="C43" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="88.15">
       <c r="D43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="409.5">
+        <v>258</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="405.4">
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="352.5">
+        <v>50</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="282">
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="229.15">
-      <c r="C46" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="123.4">
       <c r="D46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="370.15">
+        <v>261</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="264.39999999999998">
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="334.9">
-      <c r="C48" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="193.9">
       <c r="D48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="229.15">
+        <v>272</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="317.25">
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="211.5">
+        <v>54</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="405.4">
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="264.39999999999998">
+        <v>57</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="264.39999999999998">
       <c r="C51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="299.64999999999998">
+        <v>58</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="211.5">
       <c r="C52" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="193.9">
+        <v>62</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="317.25">
       <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="409.5">
+        <v>63</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="299.64999999999998">
       <c r="C54" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="88.15">
-      <c r="B55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" ht="211.5">
+      <c r="D55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="264.39999999999998">
+      <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:7" ht="282">
-      <c r="C56" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="405.4">
+        <v>298</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="88.15">
       <c r="C57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="141">
+        <v>299</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="105.75">
       <c r="C58" s="1" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="264.39999999999998">
+        <v>293</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="299.64999999999998">
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" ht="176.25">
       <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="264.39999999999998">
-      <c r="C61" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="D60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" ht="211.5">
       <c r="D61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="387.75">
+        <v>301</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" ht="334.9">
       <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="141">
       <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="370.15">
-      <c r="C64" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="D63" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="3:8" ht="141">
       <c r="D64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="264.39999999999998">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="246.75">
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="141">
+        <v>70</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="264.39999999999998">
       <c r="C66" s="1" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="299.64999999999998">
+        <v>73</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="299.64999999999998">
       <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="409.5">
+        <v>76</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="70.5">
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="264.39999999999998">
-      <c r="C69" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="193.9">
+      <c r="D69" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="317.25">
+      <c r="C70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="141">
+      <c r="D71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="88.15">
+      <c r="B72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="352.5">
-      <c r="C70" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="193.9">
-      <c r="C71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="387.75">
-      <c r="C72" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="409.5">
+        <v>79</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="282">
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="317.25">
+        <v>81</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="405.4">
       <c r="C74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="334.9">
+        <v>82</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="141">
       <c r="C75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="264.39999999999998">
+      <c r="C76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="123.4">
-      <c r="B76" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" ht="282">
-      <c r="C77" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="317.25">
+    </row>
+    <row r="78" spans="2:8" ht="264.39999999999998">
       <c r="C78" s="1" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="405.4">
+        <v>95</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="405.4">
       <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="246.75">
+        <v>96</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C80" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="370.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="370.15">
       <c r="C81" s="1" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="370.15">
+        <v>99</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="264.39999999999998">
       <c r="C82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="299.64999999999998">
-      <c r="B83" s="1" t="s">
-        <v>195</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="141">
+      <c r="C83" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="370.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="299.64999999999998">
+      <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D84" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E84" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="282">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="246.75">
+      <c r="C85" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D85" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E85" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="282">
+        <v>344</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="246.75">
       <c r="D86" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="352.5">
+        <v>345</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="264.39999999999998">
+      <c r="C87" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D87" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="370.15">
+        <v>109</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="405.4">
+      <c r="C88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="193.9">
       <c r="C89" s="1" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:7" ht="299.64999999999998">
+        <v>116</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="387.75">
       <c r="C90" s="1" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="193.9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="282">
       <c r="C91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="282">
-      <c r="C92" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="193.9">
       <c r="D92" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" ht="299.64999999999998">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="105.75">
       <c r="C93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="229.15">
-      <c r="C94" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="405.4">
       <c r="D94" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="264.39999999999998">
+        <v>361</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="105.75">
       <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="387.75">
-      <c r="C96" s="1" t="s">
-        <v>223</v>
+        <v>362</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="2:8" ht="70.5">
+      <c r="B96" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="141">
-      <c r="C97" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="123.4">
+      <c r="D97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="282">
+      <c r="C98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="317.25">
+      <c r="C99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="405.4">
+      <c r="C100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="211.5">
-      <c r="C98" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="370.15">
-      <c r="C99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="352.5">
-      <c r="C100" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="264.39999999999998">
+        <v>131</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="264.39999999999998">
       <c r="C101" s="1" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="387.75">
-      <c r="B102" s="1" t="s">
-        <v>238</v>
+        <v>137</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="370.15">
+      <c r="C102" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E102" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="334.9">
+        <v>141</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="370.15">
       <c r="C103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" ht="405.4">
-      <c r="C104" s="1" t="s">
-        <v>243</v>
+        <v>144</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="352.5">
+      <c r="B104" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" ht="299.64999999999998">
-      <c r="C105" s="1" t="s">
-        <v>246</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="405.4">
       <c r="D105" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E105" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" ht="317.25">
-      <c r="C106" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="123.4">
+      <c r="D106" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="2:8" ht="370.15">
+      <c r="D107" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="141">
+      <c r="D108" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="229.15">
+      <c r="D109" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="211.5">
+      <c r="C111" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="246.75">
+      <c r="D112" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="2:8" ht="299.64999999999998">
+      <c r="C113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="193.9">
+      <c r="C114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" ht="282">
-      <c r="C107" s="1" t="s">
+      <c r="D114" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="282">
+      <c r="C115" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="299.64999999999998">
+      <c r="C116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="264.39999999999998">
-      <c r="C108" s="1" t="s">
+      <c r="D116" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="246.75">
+      <c r="C117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" ht="409.5">
-      <c r="B109" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="105.75">
-      <c r="F110" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" ht="405.4">
-      <c r="F111" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" ht="334.9">
-      <c r="D112" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="4:7" ht="193.9">
-      <c r="D113" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="G113" s="2" t="s">
-        <v>262</v>
+      <c r="D117" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="264.39999999999998">
+      <c r="C118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="387.75">
+      <c r="C119" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="141">
+      <c r="C120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="211.5">
+      <c r="C121" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="282">
+      <c r="C122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="211.5">
+      <c r="D123" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="123.4">
+      <c r="D124" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="2:8" ht="352.5">
+      <c r="C125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="264.39999999999998">
+      <c r="C126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="193.9">
+      <c r="B127" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="299.64999999999998">
+      <c r="D128" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="158.65">
+      <c r="D129" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="229.15">
+      <c r="C130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="282">
+      <c r="C131" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="176.25">
+      <c r="D132" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="282">
+      <c r="C133" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="299.64999999999998">
+      <c r="D134" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="246.75">
+      <c r="C135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="282">
+      <c r="C136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="264.39999999999998">
+      <c r="C137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="141">
+      <c r="D138" s="2"/>
+      <c r="E138" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="H138" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="176.25">
+      <c r="B139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="2:8" ht="405.4">
+      <c r="D140" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="105.75">
+      <c r="D141" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="405.4">
+      <c r="D142" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="70.5">
+      <c r="D143" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4737,6 +7459,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498D61C6-B7EA-47A1-A731-797F702D4657}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0833AEF5-C6F8-44ED-8D01-697D7EA836A6}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1D0479DC-D698-4FC2-B9CF-3552DBAFB057}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{2D866C97-C2EF-4475-A45F-31866DD4F948}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{04620E4E-9129-43CB-A2E2-1C8720A8499B}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{2E3E773D-2EAD-4DB6-BF0E-6D93D8790E55}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{D3EB0A54-147A-439D-94A1-4942DBC3D1FA}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{85E15C47-C1B8-47D6-85F8-67FBCD13D4DA}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{8D650121-1500-47B1-8FD8-4989F19C5BC2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB7A338-1C07-4410-82C3-15EB902F36DF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4751,7 +7563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB242BA0-97E7-4330-BC6A-0953C2632A61}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4766,7 +7578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880B0A33-B202-4E56-9722-507C0C959788}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4777,4 +7589,38 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459A031C-8715-40EB-ACCA-813E6C231730}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="24.9375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.9375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="158.65">
+      <c r="B2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>